--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikol\source\repos\esveske\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5088EDE-2DEC-4BAA-B245-4BDC877D383B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D75CA94-8AD2-45E3-8EFB-6A6148ABA601}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{635E8188-4706-48C9-A343-ED53CEC08EDF}"/>
   </bookViews>
@@ -13842,8 +13842,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K1892"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1670" workbookViewId="0">
-      <selection activeCell="A1691" sqref="A1691"/>
+    <sheetView tabSelected="1" topLeftCell="A1673" workbookViewId="0">
+      <selection activeCell="J1684" sqref="J1684"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikol\source\repos\esveske\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D75CA94-8AD2-45E3-8EFB-6A6148ABA601}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845F69BB-7323-4D6B-9A6D-3FAFCBCEDA23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{635E8188-4706-48C9-A343-ED53CEC08EDF}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11505" xr2:uid="{635E8188-4706-48C9-A343-ED53CEC08EDF}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">data!$A$1:$K$1892</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">data!$A$1:$K$1893</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15127" uniqueCount="4459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15131" uniqueCount="4462">
   <si>
     <t>autor</t>
   </si>
@@ -13418,6 +13418,15 @@
   </si>
   <si>
     <t>Mijatović Nevena</t>
+  </si>
+  <si>
+    <t>Šindik Marija</t>
+  </si>
+  <si>
+    <t>Laserovanje bez inverzije naseljenosti na kvantnim tačkama</t>
+  </si>
+  <si>
+    <t>pdf/2015/FIZ1508.pdf</t>
   </si>
 </sst>
 </file>
@@ -13519,11 +13528,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DBD0333E-FB7E-4EBE-B5BF-88002E402CFB}" name="data" displayName="data" ref="A1:K1892" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:K1892" xr:uid="{C06A1984-202C-4B71-9698-1FA4C6AC311C}"/>
-  <sortState ref="A2:K1892">
-    <sortCondition ref="I2:I1892"/>
-    <sortCondition ref="G2:G1892" customList="AST,ELE,FIZ,MAT,PFE,RAC,BIO,BMD,GLG,HBH,HEM,AHL,ANT,DRH,ETN,FAN,IST,LIN,PSH,SKA,DIZ"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DBD0333E-FB7E-4EBE-B5BF-88002E402CFB}" name="data" displayName="data" ref="A1:K1893" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:K1893" xr:uid="{C06A1984-202C-4B71-9698-1FA4C6AC311C}"/>
+  <sortState ref="A2:K1893">
+    <sortCondition ref="I2:I1893"/>
+    <sortCondition ref="G2:G1893" customList="AST,ELE,FIZ,MAT,PFE,RAC,BIO,BMD,GLG,HBH,HEM,AHL,ANT,DRH,ETN,FAN,IST,LIN,PSH,SKA,DIZ"/>
   </sortState>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{F77F333E-B75C-4E02-80D6-B041C7FA6163}" uniqueName="1" name="autor" queryTableFieldId="1" dataDxfId="7"/>
@@ -13840,10 +13849,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{548488FA-0B6A-4A56-8D6E-FF1174DFACEE}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K1892"/>
+  <dimension ref="A1:K1893"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1673" workbookViewId="0">
-      <selection activeCell="J1684" sqref="J1684"/>
+    <sheetView tabSelected="1" topLeftCell="J1618" workbookViewId="0">
+      <selection activeCell="K1630" sqref="K1630"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -69135,31 +69144,23 @@
     </row>
     <row r="1624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1624" s="1" t="s">
-        <v>3903</v>
-      </c>
-      <c r="C1624" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D1624" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E1624" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F1624" s="1" t="s">
-        <v>133</v>
-      </c>
+        <v>4459</v>
+      </c>
+      <c r="C1624" s="1"/>
+      <c r="D1624" s="1"/>
+      <c r="E1624" s="1"/>
+      <c r="F1624" s="1"/>
       <c r="G1624" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H1624">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I1624">
         <v>2015</v>
       </c>
       <c r="J1624" s="1" t="s">
-        <v>3904</v>
+        <v>4460</v>
       </c>
       <c r="K1624" s="1" t="s">
         <v>3905</v>
@@ -69167,7 +69168,7 @@
     </row>
     <row r="1625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1625" s="1" t="s">
-        <v>1863</v>
+        <v>3903</v>
       </c>
       <c r="C1625" s="1" t="s">
         <v>133</v>
@@ -69185,13 +69186,13 @@
         <v>23</v>
       </c>
       <c r="H1625">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I1625">
         <v>2015</v>
       </c>
       <c r="J1625" s="1" t="s">
-        <v>3906</v>
+        <v>3904</v>
       </c>
       <c r="K1625" s="1" t="s">
         <v>3907</v>
@@ -69199,7 +69200,7 @@
     </row>
     <row r="1626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1626" s="1" t="s">
-        <v>3490</v>
+        <v>1863</v>
       </c>
       <c r="C1626" s="1" t="s">
         <v>133</v>
@@ -69217,13 +69218,13 @@
         <v>23</v>
       </c>
       <c r="H1626">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I1626">
         <v>2015</v>
       </c>
       <c r="J1626" s="1" t="s">
-        <v>3908</v>
+        <v>3906</v>
       </c>
       <c r="K1626" s="1" t="s">
         <v>3909</v>
@@ -69231,7 +69232,7 @@
     </row>
     <row r="1627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1627" s="1" t="s">
-        <v>3910</v>
+        <v>3490</v>
       </c>
       <c r="C1627" s="1" t="s">
         <v>133</v>
@@ -69249,13 +69250,13 @@
         <v>23</v>
       </c>
       <c r="H1627">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I1627">
         <v>2015</v>
       </c>
       <c r="J1627" s="1" t="s">
-        <v>3911</v>
+        <v>3908</v>
       </c>
       <c r="K1627" s="1" t="s">
         <v>3912</v>
@@ -69263,7 +69264,7 @@
     </row>
     <row r="1628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1628" s="1" t="s">
-        <v>3717</v>
+        <v>3910</v>
       </c>
       <c r="C1628" s="1" t="s">
         <v>133</v>
@@ -69281,13 +69282,13 @@
         <v>23</v>
       </c>
       <c r="H1628">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I1628">
         <v>2015</v>
       </c>
       <c r="J1628" s="1" t="s">
-        <v>3913</v>
+        <v>3911</v>
       </c>
       <c r="K1628" s="1" t="s">
         <v>3914</v>
@@ -69295,7 +69296,7 @@
     </row>
     <row r="1629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1629" s="1" t="s">
-        <v>3915</v>
+        <v>3717</v>
       </c>
       <c r="C1629" s="1" t="s">
         <v>133</v>
@@ -69322,12 +69323,12 @@
         <v>3913</v>
       </c>
       <c r="K1629" s="1" t="s">
-        <v>3914</v>
+        <v>3918</v>
       </c>
     </row>
     <row r="1630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1630" s="1" t="s">
-        <v>3916</v>
+        <v>3915</v>
       </c>
       <c r="C1630" s="1" t="s">
         <v>133</v>
@@ -69345,13 +69346,13 @@
         <v>23</v>
       </c>
       <c r="H1630">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I1630">
         <v>2015</v>
       </c>
       <c r="J1630" s="1" t="s">
-        <v>3917</v>
+        <v>3913</v>
       </c>
       <c r="K1630" s="1" t="s">
         <v>3918</v>
@@ -69359,7 +69360,7 @@
     </row>
     <row r="1631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1631" s="1" t="s">
-        <v>3919</v>
+        <v>3916</v>
       </c>
       <c r="C1631" s="1" t="s">
         <v>133</v>
@@ -69386,12 +69387,12 @@
         <v>3917</v>
       </c>
       <c r="K1631" s="1" t="s">
-        <v>3918</v>
+        <v>3922</v>
       </c>
     </row>
     <row r="1632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1632" s="1" t="s">
-        <v>3920</v>
+        <v>3919</v>
       </c>
       <c r="C1632" s="1" t="s">
         <v>133</v>
@@ -69415,7 +69416,7 @@
         <v>2015</v>
       </c>
       <c r="J1632" s="1" t="s">
-        <v>3921</v>
+        <v>3917</v>
       </c>
       <c r="K1632" s="1" t="s">
         <v>3922</v>
@@ -69423,7 +69424,7 @@
     </row>
     <row r="1633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1633" s="1" t="s">
-        <v>3799</v>
+        <v>3920</v>
       </c>
       <c r="C1633" s="1" t="s">
         <v>133</v>
@@ -69438,24 +69439,24 @@
         <v>133</v>
       </c>
       <c r="G1633" s="1" t="s">
-        <v>520</v>
+        <v>23</v>
       </c>
       <c r="H1633">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="I1633">
         <v>2015</v>
       </c>
       <c r="J1633" s="1" t="s">
-        <v>3994</v>
+        <v>3921</v>
       </c>
       <c r="K1633" s="1" t="s">
-        <v>3995</v>
+        <v>4461</v>
       </c>
     </row>
     <row r="1634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1634" s="1" t="s">
-        <v>3996</v>
+        <v>3799</v>
       </c>
       <c r="C1634" s="1" t="s">
         <v>133</v>
@@ -69487,7 +69488,7 @@
     </row>
     <row r="1635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1635" s="1" t="s">
-        <v>3796</v>
+        <v>3996</v>
       </c>
       <c r="C1635" s="1" t="s">
         <v>133</v>
@@ -69505,21 +69506,21 @@
         <v>520</v>
       </c>
       <c r="H1635">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I1635">
         <v>2015</v>
       </c>
       <c r="J1635" s="1" t="s">
-        <v>3997</v>
+        <v>3994</v>
       </c>
       <c r="K1635" s="1" t="s">
-        <v>3998</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="1636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1636" s="1" t="s">
-        <v>3825</v>
+        <v>3796</v>
       </c>
       <c r="C1636" s="1" t="s">
         <v>133</v>
@@ -69534,24 +69535,24 @@
         <v>133</v>
       </c>
       <c r="G1636" s="1" t="s">
-        <v>39</v>
+        <v>520</v>
       </c>
       <c r="H1636">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I1636">
         <v>2015</v>
       </c>
       <c r="J1636" s="1" t="s">
-        <v>4007</v>
+        <v>3997</v>
       </c>
       <c r="K1636" s="1" t="s">
-        <v>4008</v>
+        <v>3998</v>
       </c>
     </row>
     <row r="1637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1637" s="1" t="s">
-        <v>3828</v>
+        <v>3825</v>
       </c>
       <c r="C1637" s="1" t="s">
         <v>133</v>
@@ -69569,21 +69570,21 @@
         <v>39</v>
       </c>
       <c r="H1637">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I1637">
         <v>2015</v>
       </c>
       <c r="J1637" s="1" t="s">
-        <v>4009</v>
+        <v>4007</v>
       </c>
       <c r="K1637" s="1" t="s">
-        <v>4010</v>
+        <v>4008</v>
       </c>
     </row>
     <row r="1638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1638" s="1" t="s">
-        <v>3825</v>
+        <v>3828</v>
       </c>
       <c r="C1638" s="1" t="s">
         <v>133</v>
@@ -69601,21 +69602,21 @@
         <v>39</v>
       </c>
       <c r="H1638">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I1638">
         <v>2015</v>
       </c>
       <c r="J1638" s="1" t="s">
-        <v>4011</v>
+        <v>4009</v>
       </c>
       <c r="K1638" s="1" t="s">
-        <v>4012</v>
+        <v>4010</v>
       </c>
     </row>
     <row r="1639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1639" s="1" t="s">
-        <v>3868</v>
+        <v>3825</v>
       </c>
       <c r="C1639" s="1" t="s">
         <v>133</v>
@@ -69630,7 +69631,7 @@
         <v>133</v>
       </c>
       <c r="G1639" s="1" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="H1639">
         <v>7</v>
@@ -69639,15 +69640,15 @@
         <v>2015</v>
       </c>
       <c r="J1639" s="1" t="s">
-        <v>3869</v>
+        <v>4011</v>
       </c>
       <c r="K1639" s="1" t="s">
-        <v>3870</v>
+        <v>4012</v>
       </c>
     </row>
     <row r="1640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1640" s="1" t="s">
-        <v>3871</v>
+        <v>3868</v>
       </c>
       <c r="C1640" s="1" t="s">
         <v>133</v>
@@ -69665,21 +69666,21 @@
         <v>55</v>
       </c>
       <c r="H1640">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I1640">
         <v>2015</v>
       </c>
       <c r="J1640" s="1" t="s">
-        <v>3872</v>
+        <v>3869</v>
       </c>
       <c r="K1640" s="1" t="s">
-        <v>3873</v>
+        <v>3870</v>
       </c>
     </row>
     <row r="1641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1641" s="1" t="s">
-        <v>3874</v>
+        <v>3871</v>
       </c>
       <c r="C1641" s="1" t="s">
         <v>133</v>
@@ -69697,21 +69698,21 @@
         <v>55</v>
       </c>
       <c r="H1641">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I1641">
         <v>2015</v>
       </c>
       <c r="J1641" s="1" t="s">
-        <v>3875</v>
+        <v>3872</v>
       </c>
       <c r="K1641" s="1" t="s">
-        <v>3876</v>
+        <v>3873</v>
       </c>
     </row>
     <row r="1642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1642" s="1" t="s">
-        <v>3877</v>
+        <v>3874</v>
       </c>
       <c r="C1642" s="1" t="s">
         <v>133</v>
@@ -69729,21 +69730,21 @@
         <v>55</v>
       </c>
       <c r="H1642">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I1642">
         <v>2015</v>
       </c>
       <c r="J1642" s="1" t="s">
-        <v>3878</v>
+        <v>3875</v>
       </c>
       <c r="K1642" s="1" t="s">
-        <v>3879</v>
+        <v>3876</v>
       </c>
     </row>
     <row r="1643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1643" s="1" t="s">
-        <v>3670</v>
+        <v>3877</v>
       </c>
       <c r="C1643" s="1" t="s">
         <v>133</v>
@@ -69761,21 +69762,21 @@
         <v>55</v>
       </c>
       <c r="H1643">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I1643">
         <v>2015</v>
       </c>
       <c r="J1643" s="1" t="s">
-        <v>3880</v>
+        <v>3878</v>
       </c>
       <c r="K1643" s="1" t="s">
-        <v>3881</v>
+        <v>3879</v>
       </c>
     </row>
     <row r="1644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1644" s="1" t="s">
-        <v>3578</v>
+        <v>3670</v>
       </c>
       <c r="C1644" s="1" t="s">
         <v>133</v>
@@ -69793,21 +69794,21 @@
         <v>55</v>
       </c>
       <c r="H1644">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I1644">
         <v>2015</v>
       </c>
       <c r="J1644" s="1" t="s">
-        <v>3882</v>
+        <v>3880</v>
       </c>
       <c r="K1644" s="1" t="s">
-        <v>3883</v>
+        <v>3881</v>
       </c>
     </row>
     <row r="1645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1645" s="1" t="s">
-        <v>3884</v>
+        <v>3578</v>
       </c>
       <c r="C1645" s="1" t="s">
         <v>133</v>
@@ -69822,24 +69823,24 @@
         <v>133</v>
       </c>
       <c r="G1645" s="1" t="s">
-        <v>122</v>
+        <v>55</v>
       </c>
       <c r="H1645">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="I1645">
         <v>2015</v>
       </c>
       <c r="J1645" s="1" t="s">
-        <v>3885</v>
+        <v>3882</v>
       </c>
       <c r="K1645" s="1" t="s">
-        <v>3886</v>
+        <v>3883</v>
       </c>
     </row>
     <row r="1646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1646" s="1" t="s">
-        <v>3684</v>
+        <v>3884</v>
       </c>
       <c r="C1646" s="1" t="s">
         <v>133</v>
@@ -69857,21 +69858,21 @@
         <v>122</v>
       </c>
       <c r="H1646">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I1646">
         <v>2015</v>
       </c>
       <c r="J1646" s="1" t="s">
-        <v>3887</v>
+        <v>3885</v>
       </c>
       <c r="K1646" s="1" t="s">
-        <v>3888</v>
+        <v>3886</v>
       </c>
     </row>
     <row r="1647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1647" s="1" t="s">
-        <v>3674</v>
+        <v>3684</v>
       </c>
       <c r="C1647" s="1" t="s">
         <v>133</v>
@@ -69889,21 +69890,21 @@
         <v>122</v>
       </c>
       <c r="H1647">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I1647">
         <v>2015</v>
       </c>
       <c r="J1647" s="1" t="s">
-        <v>3889</v>
+        <v>3887</v>
       </c>
       <c r="K1647" s="1" t="s">
-        <v>3890</v>
+        <v>3888</v>
       </c>
     </row>
     <row r="1648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1648" s="1" t="s">
-        <v>3893</v>
+        <v>3674</v>
       </c>
       <c r="C1648" s="1" t="s">
         <v>133</v>
@@ -69918,24 +69919,24 @@
         <v>133</v>
       </c>
       <c r="G1648" s="1" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="H1648">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="I1648">
         <v>2015</v>
       </c>
       <c r="J1648" s="1" t="s">
-        <v>3923</v>
+        <v>3889</v>
       </c>
       <c r="K1648" s="1" t="s">
-        <v>3924</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="1649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1649" s="1" t="s">
-        <v>3726</v>
+        <v>3893</v>
       </c>
       <c r="C1649" s="1" t="s">
         <v>133</v>
@@ -69967,7 +69968,7 @@
     </row>
     <row r="1650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1650" s="1" t="s">
-        <v>3925</v>
+        <v>3726</v>
       </c>
       <c r="C1650" s="1" t="s">
         <v>133</v>
@@ -69985,21 +69986,21 @@
         <v>100</v>
       </c>
       <c r="H1650">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I1650">
         <v>2015</v>
       </c>
       <c r="J1650" s="1" t="s">
-        <v>3926</v>
+        <v>3923</v>
       </c>
       <c r="K1650" s="1" t="s">
-        <v>3927</v>
+        <v>3924</v>
       </c>
     </row>
     <row r="1651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1651" s="1" t="s">
-        <v>3928</v>
+        <v>3925</v>
       </c>
       <c r="C1651" s="1" t="s">
         <v>133</v>
@@ -70017,21 +70018,21 @@
         <v>100</v>
       </c>
       <c r="H1651">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I1651">
         <v>2015</v>
       </c>
       <c r="J1651" s="1" t="s">
-        <v>3929</v>
+        <v>3926</v>
       </c>
       <c r="K1651" s="1" t="s">
-        <v>3930</v>
+        <v>3927</v>
       </c>
     </row>
     <row r="1652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1652" s="1" t="s">
-        <v>3931</v>
+        <v>3928</v>
       </c>
       <c r="C1652" s="1" t="s">
         <v>133</v>
@@ -70063,7 +70064,7 @@
     </row>
     <row r="1653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1653" s="1" t="s">
-        <v>3932</v>
+        <v>3931</v>
       </c>
       <c r="C1653" s="1" t="s">
         <v>133</v>
@@ -70081,21 +70082,21 @@
         <v>100</v>
       </c>
       <c r="H1653">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I1653">
         <v>2015</v>
       </c>
       <c r="J1653" s="1" t="s">
-        <v>3933</v>
+        <v>3929</v>
       </c>
       <c r="K1653" s="1" t="s">
-        <v>3934</v>
+        <v>3930</v>
       </c>
     </row>
     <row r="1654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1654" s="1" t="s">
-        <v>3935</v>
+        <v>3932</v>
       </c>
       <c r="C1654" s="1" t="s">
         <v>133</v>
@@ -70113,21 +70114,21 @@
         <v>100</v>
       </c>
       <c r="H1654">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I1654">
         <v>2015</v>
       </c>
       <c r="J1654" s="1" t="s">
-        <v>3936</v>
+        <v>3933</v>
       </c>
       <c r="K1654" s="1" t="s">
-        <v>3937</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="1655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1655" s="1" t="s">
-        <v>3938</v>
+        <v>3935</v>
       </c>
       <c r="C1655" s="1" t="s">
         <v>133</v>
@@ -70159,7 +70160,7 @@
     </row>
     <row r="1656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1656" s="1" t="s">
-        <v>3939</v>
+        <v>3938</v>
       </c>
       <c r="C1656" s="1" t="s">
         <v>133</v>
@@ -70177,21 +70178,21 @@
         <v>100</v>
       </c>
       <c r="H1656">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I1656">
         <v>2015</v>
       </c>
       <c r="J1656" s="1" t="s">
-        <v>3940</v>
+        <v>3936</v>
       </c>
       <c r="K1656" s="1" t="s">
-        <v>3941</v>
+        <v>3937</v>
       </c>
     </row>
     <row r="1657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1657" s="1" t="s">
-        <v>3942</v>
+        <v>3939</v>
       </c>
       <c r="C1657" s="1" t="s">
         <v>133</v>
@@ -70215,15 +70216,15 @@
         <v>2015</v>
       </c>
       <c r="J1657" s="1" t="s">
-        <v>3943</v>
+        <v>3940</v>
       </c>
       <c r="K1657" s="1" t="s">
-        <v>3944</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="1658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1658" s="1" t="s">
-        <v>3745</v>
+        <v>3942</v>
       </c>
       <c r="C1658" s="1" t="s">
         <v>133</v>
@@ -70238,24 +70239,24 @@
         <v>133</v>
       </c>
       <c r="G1658" s="1" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="H1658">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I1658">
         <v>2015</v>
       </c>
       <c r="J1658" s="1" t="s">
-        <v>3945</v>
+        <v>3943</v>
       </c>
       <c r="K1658" s="1" t="s">
-        <v>3946</v>
+        <v>3944</v>
       </c>
     </row>
     <row r="1659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1659" s="1" t="s">
-        <v>3947</v>
+        <v>3745</v>
       </c>
       <c r="C1659" s="1" t="s">
         <v>133</v>
@@ -70273,21 +70274,21 @@
         <v>33</v>
       </c>
       <c r="H1659">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I1659">
         <v>2015</v>
       </c>
       <c r="J1659" s="1" t="s">
-        <v>3948</v>
+        <v>3945</v>
       </c>
       <c r="K1659" s="1" t="s">
-        <v>3949</v>
+        <v>3946</v>
       </c>
     </row>
     <row r="1660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1660" s="1" t="s">
-        <v>3748</v>
+        <v>3947</v>
       </c>
       <c r="C1660" s="1" t="s">
         <v>133</v>
@@ -70305,21 +70306,21 @@
         <v>33</v>
       </c>
       <c r="H1660">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I1660">
         <v>2015</v>
       </c>
       <c r="J1660" s="1" t="s">
-        <v>3950</v>
+        <v>3948</v>
       </c>
       <c r="K1660" s="1" t="s">
-        <v>3951</v>
+        <v>3949</v>
       </c>
     </row>
     <row r="1661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1661" s="1" t="s">
-        <v>3952</v>
+        <v>3748</v>
       </c>
       <c r="C1661" s="1" t="s">
         <v>133</v>
@@ -70337,21 +70338,21 @@
         <v>33</v>
       </c>
       <c r="H1661">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I1661">
         <v>2015</v>
       </c>
       <c r="J1661" s="1" t="s">
-        <v>3953</v>
+        <v>3950</v>
       </c>
       <c r="K1661" s="1" t="s">
-        <v>3954</v>
+        <v>3951</v>
       </c>
     </row>
     <row r="1662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1662" s="1" t="s">
-        <v>3955</v>
+        <v>3952</v>
       </c>
       <c r="C1662" s="1" t="s">
         <v>133</v>
@@ -70375,15 +70376,15 @@
         <v>2015</v>
       </c>
       <c r="J1662" s="1" t="s">
-        <v>3956</v>
+        <v>3953</v>
       </c>
       <c r="K1662" s="1" t="s">
-        <v>3957</v>
+        <v>3954</v>
       </c>
     </row>
     <row r="1663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1663" s="1" t="s">
-        <v>3958</v>
+        <v>3955</v>
       </c>
       <c r="C1663" s="1" t="s">
         <v>133</v>
@@ -70401,21 +70402,21 @@
         <v>33</v>
       </c>
       <c r="H1663">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I1663">
         <v>2015</v>
       </c>
       <c r="J1663" s="1" t="s">
-        <v>3959</v>
+        <v>3956</v>
       </c>
       <c r="K1663" s="1" t="s">
-        <v>3960</v>
+        <v>3957</v>
       </c>
     </row>
     <row r="1664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1664" s="1" t="s">
-        <v>3834</v>
+        <v>3958</v>
       </c>
       <c r="C1664" s="1" t="s">
         <v>133</v>
@@ -70430,24 +70431,24 @@
         <v>133</v>
       </c>
       <c r="G1664" s="1" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="H1664">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I1664">
         <v>2015</v>
       </c>
       <c r="J1664" s="1" t="s">
-        <v>3835</v>
+        <v>3959</v>
       </c>
       <c r="K1664" s="1" t="s">
-        <v>3836</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="1665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1665" s="1" t="s">
-        <v>3837</v>
+        <v>3834</v>
       </c>
       <c r="C1665" s="1" t="s">
         <v>133</v>
@@ -70465,21 +70466,21 @@
         <v>129</v>
       </c>
       <c r="H1665">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I1665">
         <v>2015</v>
       </c>
       <c r="J1665" s="1" t="s">
-        <v>3838</v>
+        <v>3835</v>
       </c>
       <c r="K1665" s="1" t="s">
-        <v>3839</v>
+        <v>3836</v>
       </c>
     </row>
     <row r="1666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1666" s="1" t="s">
-        <v>3840</v>
+        <v>3837</v>
       </c>
       <c r="C1666" s="1" t="s">
         <v>133</v>
@@ -70497,21 +70498,21 @@
         <v>129</v>
       </c>
       <c r="H1666">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I1666">
         <v>2015</v>
       </c>
       <c r="J1666" s="1" t="s">
-        <v>3841</v>
+        <v>3838</v>
       </c>
       <c r="K1666" s="1" t="s">
-        <v>3842</v>
+        <v>3839</v>
       </c>
     </row>
     <row r="1667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1667" s="1" t="s">
-        <v>3611</v>
+        <v>3840</v>
       </c>
       <c r="C1667" s="1" t="s">
         <v>133</v>
@@ -70543,7 +70544,7 @@
     </row>
     <row r="1668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1668" s="1" t="s">
-        <v>3843</v>
+        <v>3611</v>
       </c>
       <c r="C1668" s="1" t="s">
         <v>133</v>
@@ -70561,21 +70562,21 @@
         <v>129</v>
       </c>
       <c r="H1668">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I1668">
         <v>2015</v>
       </c>
       <c r="J1668" s="1" t="s">
-        <v>3844</v>
+        <v>3841</v>
       </c>
       <c r="K1668" s="1" t="s">
-        <v>3845</v>
+        <v>3842</v>
       </c>
     </row>
     <row r="1669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1669" s="1" t="s">
-        <v>1172</v>
+        <v>3843</v>
       </c>
       <c r="C1669" s="1" t="s">
         <v>133</v>
@@ -70590,24 +70591,24 @@
         <v>133</v>
       </c>
       <c r="G1669" s="1" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="H1669">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I1669">
         <v>2015</v>
       </c>
       <c r="J1669" s="1" t="s">
-        <v>3846</v>
+        <v>3844</v>
       </c>
       <c r="K1669" s="1" t="s">
-        <v>3847</v>
+        <v>3845</v>
       </c>
     </row>
     <row r="1670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1670" s="1" t="s">
-        <v>3893</v>
+        <v>1172</v>
       </c>
       <c r="C1670" s="1" t="s">
         <v>133</v>
@@ -70622,24 +70623,24 @@
         <v>133</v>
       </c>
       <c r="G1670" s="1" t="s">
-        <v>3699</v>
+        <v>152</v>
       </c>
       <c r="H1670">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I1670">
         <v>2015</v>
       </c>
       <c r="J1670" s="1" t="s">
-        <v>3894</v>
+        <v>3846</v>
       </c>
       <c r="K1670" s="1" t="s">
-        <v>3895</v>
+        <v>3847</v>
       </c>
     </row>
     <row r="1671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1671" s="1" t="s">
-        <v>3698</v>
+        <v>3893</v>
       </c>
       <c r="C1671" s="1" t="s">
         <v>133</v>
@@ -70657,21 +70658,21 @@
         <v>3699</v>
       </c>
       <c r="H1671">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I1671">
         <v>2015</v>
       </c>
       <c r="J1671" s="1" t="s">
-        <v>3896</v>
+        <v>3894</v>
       </c>
       <c r="K1671" s="1" t="s">
-        <v>3897</v>
+        <v>3895</v>
       </c>
     </row>
     <row r="1672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1672" s="1" t="s">
-        <v>3893</v>
+        <v>3698</v>
       </c>
       <c r="C1672" s="1" t="s">
         <v>133</v>
@@ -70689,21 +70690,21 @@
         <v>3699</v>
       </c>
       <c r="H1672">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I1672">
         <v>2015</v>
       </c>
       <c r="J1672" s="1" t="s">
-        <v>3898</v>
+        <v>3896</v>
       </c>
       <c r="K1672" s="1" t="s">
-        <v>3899</v>
+        <v>3897</v>
       </c>
     </row>
     <row r="1673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1673" s="1" t="s">
-        <v>3900</v>
+        <v>3893</v>
       </c>
       <c r="C1673" s="1" t="s">
         <v>133</v>
@@ -70721,21 +70722,21 @@
         <v>3699</v>
       </c>
       <c r="H1673">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I1673">
         <v>2015</v>
       </c>
       <c r="J1673" s="1" t="s">
-        <v>3901</v>
+        <v>3898</v>
       </c>
       <c r="K1673" s="1" t="s">
-        <v>3902</v>
+        <v>3899</v>
       </c>
     </row>
     <row r="1674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1674" s="1" t="s">
-        <v>3760</v>
+        <v>3900</v>
       </c>
       <c r="C1674" s="1" t="s">
         <v>133</v>
@@ -70750,24 +70751,24 @@
         <v>133</v>
       </c>
       <c r="G1674" s="1" t="s">
-        <v>602</v>
+        <v>3699</v>
       </c>
       <c r="H1674">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I1674">
         <v>2015</v>
       </c>
       <c r="J1674" s="1" t="s">
-        <v>3961</v>
+        <v>3901</v>
       </c>
       <c r="K1674" s="1" t="s">
-        <v>3962</v>
+        <v>3902</v>
       </c>
     </row>
     <row r="1675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1675" s="1" t="s">
-        <v>3543</v>
+        <v>3760</v>
       </c>
       <c r="C1675" s="1" t="s">
         <v>133</v>
@@ -70791,15 +70792,15 @@
         <v>2015</v>
       </c>
       <c r="J1675" s="1" t="s">
-        <v>3963</v>
+        <v>3961</v>
       </c>
       <c r="K1675" s="1" t="s">
-        <v>3964</v>
+        <v>3962</v>
       </c>
     </row>
     <row r="1676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1676" s="1" t="s">
-        <v>3965</v>
+        <v>3543</v>
       </c>
       <c r="C1676" s="1" t="s">
         <v>133</v>
@@ -70817,21 +70818,21 @@
         <v>602</v>
       </c>
       <c r="H1676">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I1676">
         <v>2015</v>
       </c>
       <c r="J1676" s="1" t="s">
-        <v>3966</v>
+        <v>3963</v>
       </c>
       <c r="K1676" s="1" t="s">
-        <v>3967</v>
+        <v>3964</v>
       </c>
     </row>
     <row r="1677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1677" s="1" t="s">
-        <v>3968</v>
+        <v>3965</v>
       </c>
       <c r="C1677" s="1" t="s">
         <v>133</v>
@@ -70849,21 +70850,21 @@
         <v>602</v>
       </c>
       <c r="H1677">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I1677">
         <v>2015</v>
       </c>
       <c r="J1677" s="1" t="s">
-        <v>3969</v>
+        <v>3966</v>
       </c>
       <c r="K1677" s="1" t="s">
-        <v>3970</v>
+        <v>3967</v>
       </c>
     </row>
     <row r="1678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1678" s="1" t="s">
-        <v>3534</v>
+        <v>3968</v>
       </c>
       <c r="C1678" s="1" t="s">
         <v>133</v>
@@ -70881,21 +70882,21 @@
         <v>602</v>
       </c>
       <c r="H1678">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I1678">
         <v>2015</v>
       </c>
       <c r="J1678" s="1" t="s">
-        <v>3971</v>
+        <v>3969</v>
       </c>
       <c r="K1678" s="1" t="s">
-        <v>3972</v>
+        <v>3970</v>
       </c>
     </row>
     <row r="1679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1679" s="1" t="s">
-        <v>3973</v>
+        <v>3534</v>
       </c>
       <c r="C1679" s="1" t="s">
         <v>133</v>
@@ -70913,21 +70914,21 @@
         <v>602</v>
       </c>
       <c r="H1679">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I1679">
         <v>2015</v>
       </c>
       <c r="J1679" s="1" t="s">
-        <v>3974</v>
+        <v>3971</v>
       </c>
       <c r="K1679" s="1" t="s">
-        <v>3975</v>
+        <v>3972</v>
       </c>
     </row>
     <row r="1680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1680" s="1" t="s">
-        <v>3537</v>
+        <v>3973</v>
       </c>
       <c r="C1680" s="1" t="s">
         <v>133</v>
@@ -70945,21 +70946,21 @@
         <v>602</v>
       </c>
       <c r="H1680">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I1680">
         <v>2015</v>
       </c>
       <c r="J1680" s="1" t="s">
-        <v>3976</v>
+        <v>3974</v>
       </c>
       <c r="K1680" s="1" t="s">
-        <v>3977</v>
+        <v>3975</v>
       </c>
     </row>
     <row r="1681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1681" s="1" t="s">
-        <v>3978</v>
+        <v>3537</v>
       </c>
       <c r="C1681" s="1" t="s">
         <v>133</v>
@@ -70974,24 +70975,24 @@
         <v>133</v>
       </c>
       <c r="G1681" s="1" t="s">
-        <v>158</v>
+        <v>602</v>
       </c>
       <c r="H1681">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I1681">
         <v>2015</v>
       </c>
       <c r="J1681" s="1" t="s">
-        <v>3979</v>
+        <v>3976</v>
       </c>
       <c r="K1681" s="1" t="s">
-        <v>3980</v>
+        <v>3977</v>
       </c>
     </row>
     <row r="1682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1682" s="1" t="s">
-        <v>3981</v>
+        <v>3978</v>
       </c>
       <c r="C1682" s="1" t="s">
         <v>133</v>
@@ -71015,15 +71016,15 @@
         <v>2015</v>
       </c>
       <c r="J1682" s="1" t="s">
-        <v>3982</v>
+        <v>3979</v>
       </c>
       <c r="K1682" s="1" t="s">
-        <v>3983</v>
+        <v>3980</v>
       </c>
     </row>
     <row r="1683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1683" s="1" t="s">
-        <v>3782</v>
+        <v>3981</v>
       </c>
       <c r="C1683" s="1" t="s">
         <v>133</v>
@@ -71041,21 +71042,21 @@
         <v>158</v>
       </c>
       <c r="H1683">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1683">
         <v>2015</v>
       </c>
       <c r="J1683" s="1" t="s">
-        <v>3984</v>
+        <v>3982</v>
       </c>
       <c r="K1683" s="1" t="s">
-        <v>3985</v>
+        <v>3983</v>
       </c>
     </row>
     <row r="1684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1684" s="1" t="s">
-        <v>3986</v>
+        <v>3782</v>
       </c>
       <c r="C1684" s="1" t="s">
         <v>133</v>
@@ -71073,21 +71074,21 @@
         <v>158</v>
       </c>
       <c r="H1684">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1684">
         <v>2015</v>
       </c>
       <c r="J1684" s="1" t="s">
-        <v>3987</v>
+        <v>3984</v>
       </c>
       <c r="K1684" s="1" t="s">
-        <v>3988</v>
+        <v>3985</v>
       </c>
     </row>
     <row r="1685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1685" s="1" t="s">
-        <v>3779</v>
+        <v>3986</v>
       </c>
       <c r="C1685" s="1" t="s">
         <v>133</v>
@@ -71105,21 +71106,21 @@
         <v>158</v>
       </c>
       <c r="H1685">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1685">
         <v>2015</v>
       </c>
       <c r="J1685" s="1" t="s">
-        <v>3989</v>
+        <v>3987</v>
       </c>
       <c r="K1685" s="1" t="s">
-        <v>3990</v>
+        <v>3988</v>
       </c>
     </row>
     <row r="1686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1686" s="1" t="s">
-        <v>3991</v>
+        <v>3779</v>
       </c>
       <c r="C1686" s="1" t="s">
         <v>133</v>
@@ -71143,15 +71144,15 @@
         <v>2015</v>
       </c>
       <c r="J1686" s="1" t="s">
-        <v>3992</v>
+        <v>3989</v>
       </c>
       <c r="K1686" s="1" t="s">
-        <v>3993</v>
+        <v>3990</v>
       </c>
     </row>
     <row r="1687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1687" s="1" t="s">
-        <v>3810</v>
+        <v>3991</v>
       </c>
       <c r="C1687" s="1" t="s">
         <v>133</v>
@@ -71166,24 +71167,24 @@
         <v>133</v>
       </c>
       <c r="G1687" s="1" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="H1687">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I1687">
         <v>2015</v>
       </c>
       <c r="J1687" s="1" t="s">
-        <v>3999</v>
+        <v>3992</v>
       </c>
       <c r="K1687" s="1" t="s">
-        <v>4000</v>
+        <v>3993</v>
       </c>
     </row>
     <row r="1688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1688" s="1" t="s">
-        <v>3813</v>
+        <v>3810</v>
       </c>
       <c r="C1688" s="1" t="s">
         <v>133</v>
@@ -71215,31 +71216,39 @@
     </row>
     <row r="1689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1689" s="1" t="s">
-        <v>4454</v>
-      </c>
-      <c r="C1689" s="1"/>
-      <c r="D1689" s="1"/>
-      <c r="E1689" s="1"/>
-      <c r="F1689" s="1"/>
+        <v>3813</v>
+      </c>
+      <c r="C1689" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1689" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1689" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1689" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="G1689" s="1" t="s">
         <v>170</v>
       </c>
       <c r="H1689">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I1689">
         <v>2015</v>
       </c>
-      <c r="J1689" t="s">
-        <v>4455</v>
+      <c r="J1689" s="1" t="s">
+        <v>3999</v>
       </c>
       <c r="K1689" s="1" t="s">
-        <v>4456</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="1690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1690" s="1" t="s">
-        <v>4457</v>
+        <v>4454</v>
       </c>
       <c r="C1690" s="1"/>
       <c r="D1690" s="1"/>
@@ -71263,7 +71272,7 @@
     </row>
     <row r="1691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1691" s="1" t="s">
-        <v>4458</v>
+        <v>4457</v>
       </c>
       <c r="C1691" s="1"/>
       <c r="D1691" s="1"/>
@@ -71287,39 +71296,31 @@
     </row>
     <row r="1692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1692" s="1" t="s">
-        <v>4001</v>
-      </c>
-      <c r="C1692" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D1692" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E1692" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F1692" s="1" t="s">
-        <v>133</v>
-      </c>
+        <v>4458</v>
+      </c>
+      <c r="C1692" s="1"/>
+      <c r="D1692" s="1"/>
+      <c r="E1692" s="1"/>
+      <c r="F1692" s="1"/>
       <c r="G1692" s="1" t="s">
         <v>170</v>
       </c>
       <c r="H1692">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I1692">
         <v>2015</v>
       </c>
-      <c r="J1692" s="1" t="s">
-        <v>4002</v>
+      <c r="J1692" t="s">
+        <v>4455</v>
       </c>
       <c r="K1692" s="1" t="s">
-        <v>4003</v>
+        <v>4456</v>
       </c>
     </row>
     <row r="1693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1693" s="1" t="s">
-        <v>3821</v>
+        <v>4001</v>
       </c>
       <c r="C1693" s="1" t="s">
         <v>133</v>
@@ -71337,21 +71338,21 @@
         <v>170</v>
       </c>
       <c r="H1693">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I1693">
         <v>2015</v>
       </c>
       <c r="J1693" s="1" t="s">
-        <v>4004</v>
+        <v>4002</v>
       </c>
       <c r="K1693" s="1" t="s">
-        <v>4005</v>
+        <v>4003</v>
       </c>
     </row>
     <row r="1694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1694" s="1" t="s">
-        <v>4006</v>
+        <v>3821</v>
       </c>
       <c r="C1694" s="1" t="s">
         <v>133</v>
@@ -71383,7 +71384,7 @@
     </row>
     <row r="1695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1695" s="1" t="s">
-        <v>3891</v>
+        <v>4006</v>
       </c>
       <c r="C1695" s="1" t="s">
         <v>133</v>
@@ -71398,24 +71399,24 @@
         <v>133</v>
       </c>
       <c r="G1695" s="1" t="s">
-        <v>3469</v>
+        <v>170</v>
       </c>
       <c r="H1695">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="I1695">
         <v>2015</v>
       </c>
       <c r="J1695" s="1" t="s">
-        <v>3891</v>
+        <v>4004</v>
       </c>
       <c r="K1695" s="1" t="s">
-        <v>3892</v>
+        <v>4005</v>
       </c>
     </row>
     <row r="1696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1696" s="1" t="s">
-        <v>4030</v>
+        <v>3891</v>
       </c>
       <c r="C1696" s="1" t="s">
         <v>133</v>
@@ -71430,24 +71431,24 @@
         <v>133</v>
       </c>
       <c r="G1696" s="1" t="s">
-        <v>16</v>
+        <v>3469</v>
       </c>
       <c r="H1696">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="I1696">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="J1696" s="1" t="s">
-        <v>4031</v>
+        <v>3891</v>
       </c>
       <c r="K1696" s="1" t="s">
-        <v>4032</v>
+        <v>3892</v>
       </c>
     </row>
     <row r="1697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1697" s="1" t="s">
-        <v>4033</v>
+        <v>4030</v>
       </c>
       <c r="C1697" s="1" t="s">
         <v>133</v>
@@ -71465,21 +71466,21 @@
         <v>16</v>
       </c>
       <c r="H1697">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I1697">
         <v>2016</v>
       </c>
       <c r="J1697" s="1" t="s">
-        <v>4034</v>
+        <v>4031</v>
       </c>
       <c r="K1697" s="1" t="s">
-        <v>4035</v>
+        <v>4032</v>
       </c>
     </row>
     <row r="1698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1698" s="1" t="s">
-        <v>4036</v>
+        <v>4033</v>
       </c>
       <c r="C1698" s="1" t="s">
         <v>133</v>
@@ -71497,21 +71498,21 @@
         <v>16</v>
       </c>
       <c r="H1698">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="I1698">
         <v>2016</v>
       </c>
       <c r="J1698" s="1" t="s">
-        <v>4037</v>
+        <v>4034</v>
       </c>
       <c r="K1698" s="1" t="s">
-        <v>4038</v>
+        <v>4035</v>
       </c>
     </row>
     <row r="1699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1699" s="1" t="s">
-        <v>4039</v>
+        <v>4036</v>
       </c>
       <c r="C1699" s="1" t="s">
         <v>133</v>
@@ -71529,21 +71530,21 @@
         <v>16</v>
       </c>
       <c r="H1699">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I1699">
         <v>2016</v>
       </c>
       <c r="J1699" s="1" t="s">
-        <v>4040</v>
+        <v>4037</v>
       </c>
       <c r="K1699" s="1" t="s">
-        <v>4041</v>
+        <v>4038</v>
       </c>
     </row>
     <row r="1700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1700" s="1" t="s">
-        <v>4042</v>
+        <v>4039</v>
       </c>
       <c r="C1700" s="1" t="s">
         <v>133</v>
@@ -71575,7 +71576,7 @@
     </row>
     <row r="1701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1701" s="1" t="s">
-        <v>4071</v>
+        <v>4042</v>
       </c>
       <c r="C1701" s="1" t="s">
         <v>133</v>
@@ -71590,24 +71591,24 @@
         <v>133</v>
       </c>
       <c r="G1701" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H1701">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I1701">
         <v>2016</v>
       </c>
       <c r="J1701" s="1" t="s">
-        <v>4072</v>
+        <v>4040</v>
       </c>
       <c r="K1701" s="1" t="s">
-        <v>4073</v>
+        <v>4041</v>
       </c>
     </row>
     <row r="1702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1702" s="1" t="s">
-        <v>4074</v>
+        <v>4071</v>
       </c>
       <c r="C1702" s="1" t="s">
         <v>133</v>
@@ -71625,21 +71626,21 @@
         <v>23</v>
       </c>
       <c r="H1702">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I1702">
         <v>2016</v>
       </c>
       <c r="J1702" s="1" t="s">
-        <v>4075</v>
+        <v>4072</v>
       </c>
       <c r="K1702" s="1" t="s">
-        <v>4076</v>
+        <v>4073</v>
       </c>
     </row>
     <row r="1703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1703" s="1" t="s">
-        <v>4077</v>
+        <v>4074</v>
       </c>
       <c r="C1703" s="1" t="s">
         <v>133</v>
@@ -71671,7 +71672,7 @@
     </row>
     <row r="1704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1704" s="1" t="s">
-        <v>3903</v>
+        <v>4077</v>
       </c>
       <c r="C1704" s="1" t="s">
         <v>133</v>
@@ -71689,21 +71690,21 @@
         <v>23</v>
       </c>
       <c r="H1704">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I1704">
         <v>2016</v>
       </c>
       <c r="J1704" s="1" t="s">
-        <v>4078</v>
+        <v>4075</v>
       </c>
       <c r="K1704" s="1" t="s">
-        <v>4079</v>
+        <v>4076</v>
       </c>
     </row>
     <row r="1705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1705" s="1" t="s">
-        <v>3910</v>
+        <v>3903</v>
       </c>
       <c r="C1705" s="1" t="s">
         <v>133</v>
@@ -71735,7 +71736,7 @@
     </row>
     <row r="1706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1706" s="1" t="s">
-        <v>4080</v>
+        <v>3910</v>
       </c>
       <c r="C1706" s="1" t="s">
         <v>133</v>
@@ -71753,21 +71754,21 @@
         <v>23</v>
       </c>
       <c r="H1706">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I1706">
         <v>2016</v>
       </c>
       <c r="J1706" s="1" t="s">
-        <v>4081</v>
+        <v>4078</v>
       </c>
       <c r="K1706" s="1" t="s">
-        <v>4082</v>
+        <v>4079</v>
       </c>
     </row>
     <row r="1707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1707" s="1" t="s">
-        <v>4083</v>
+        <v>4080</v>
       </c>
       <c r="C1707" s="1" t="s">
         <v>133</v>
@@ -71799,7 +71800,7 @@
     </row>
     <row r="1708" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1708" s="1" t="s">
-        <v>4084</v>
+        <v>4083</v>
       </c>
       <c r="C1708" s="1" t="s">
         <v>133</v>
@@ -71823,15 +71824,15 @@
         <v>2016</v>
       </c>
       <c r="J1708" s="1" t="s">
-        <v>4085</v>
+        <v>4081</v>
       </c>
       <c r="K1708" s="1" t="s">
-        <v>4086</v>
+        <v>4082</v>
       </c>
     </row>
     <row r="1709" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1709" s="1" t="s">
-        <v>4087</v>
+        <v>4084</v>
       </c>
       <c r="C1709" s="1" t="s">
         <v>133</v>
@@ -71863,7 +71864,7 @@
     </row>
     <row r="1710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1710" s="1" t="s">
-        <v>4088</v>
+        <v>4087</v>
       </c>
       <c r="C1710" s="1" t="s">
         <v>133</v>
@@ -71881,21 +71882,21 @@
         <v>23</v>
       </c>
       <c r="H1710">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I1710">
         <v>2016</v>
       </c>
       <c r="J1710" s="1" t="s">
-        <v>4089</v>
+        <v>4085</v>
       </c>
       <c r="K1710" s="1" t="s">
-        <v>4090</v>
+        <v>4086</v>
       </c>
     </row>
     <row r="1711" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1711" s="1" t="s">
-        <v>4091</v>
+        <v>4088</v>
       </c>
       <c r="C1711" s="1" t="s">
         <v>133</v>
@@ -71919,15 +71920,15 @@
         <v>2016</v>
       </c>
       <c r="J1711" s="1" t="s">
-        <v>4092</v>
+        <v>4089</v>
       </c>
       <c r="K1711" s="1" t="s">
-        <v>4093</v>
+        <v>4090</v>
       </c>
     </row>
     <row r="1712" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1712" s="1" t="s">
-        <v>26</v>
+        <v>4091</v>
       </c>
       <c r="C1712" s="1" t="s">
         <v>133</v>
@@ -71959,7 +71960,7 @@
     </row>
     <row r="1713" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1713" s="1" t="s">
-        <v>4094</v>
+        <v>26</v>
       </c>
       <c r="C1713" s="1" t="s">
         <v>133</v>
@@ -71977,21 +71978,21 @@
         <v>23</v>
       </c>
       <c r="H1713">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I1713">
         <v>2016</v>
       </c>
       <c r="J1713" s="1" t="s">
-        <v>4095</v>
+        <v>4092</v>
       </c>
       <c r="K1713" s="1" t="s">
-        <v>4096</v>
+        <v>4093</v>
       </c>
     </row>
     <row r="1714" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1714" s="1" t="s">
-        <v>4097</v>
+        <v>4094</v>
       </c>
       <c r="C1714" s="1" t="s">
         <v>133</v>
@@ -72023,7 +72024,7 @@
     </row>
     <row r="1715" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1715" s="1" t="s">
-        <v>4098</v>
+        <v>4097</v>
       </c>
       <c r="C1715" s="1" t="s">
         <v>133</v>
@@ -72041,21 +72042,21 @@
         <v>23</v>
       </c>
       <c r="H1715">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1715">
         <v>2016</v>
       </c>
       <c r="J1715" s="1" t="s">
-        <v>4099</v>
+        <v>4095</v>
       </c>
       <c r="K1715" s="1" t="s">
-        <v>4100</v>
+        <v>4096</v>
       </c>
     </row>
     <row r="1716" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1716" s="1" t="s">
-        <v>4148</v>
+        <v>4098</v>
       </c>
       <c r="C1716" s="1" t="s">
         <v>133</v>
@@ -72070,24 +72071,24 @@
         <v>133</v>
       </c>
       <c r="G1716" s="1" t="s">
-        <v>520</v>
+        <v>23</v>
       </c>
       <c r="H1716">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I1716">
         <v>2016</v>
       </c>
       <c r="J1716" s="1" t="s">
-        <v>4149</v>
+        <v>4099</v>
       </c>
       <c r="K1716" s="1" t="s">
-        <v>4150</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="1717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1717" s="1" t="s">
-        <v>4151</v>
+        <v>4148</v>
       </c>
       <c r="C1717" s="1" t="s">
         <v>133</v>
@@ -72105,21 +72106,21 @@
         <v>520</v>
       </c>
       <c r="H1717">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I1717">
         <v>2016</v>
       </c>
       <c r="J1717" s="1" t="s">
-        <v>4152</v>
+        <v>4149</v>
       </c>
       <c r="K1717" s="1" t="s">
-        <v>4153</v>
+        <v>4150</v>
       </c>
     </row>
     <row r="1718" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1718" s="1" t="s">
-        <v>4154</v>
+        <v>4151</v>
       </c>
       <c r="C1718" s="1" t="s">
         <v>133</v>
@@ -72137,21 +72138,21 @@
         <v>520</v>
       </c>
       <c r="H1718">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I1718">
         <v>2016</v>
       </c>
       <c r="J1718" s="1" t="s">
-        <v>4155</v>
+        <v>4152</v>
       </c>
       <c r="K1718" s="1" t="s">
-        <v>4156</v>
+        <v>4153</v>
       </c>
     </row>
     <row r="1719" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1719" s="1" t="s">
-        <v>4157</v>
+        <v>4154</v>
       </c>
       <c r="C1719" s="1" t="s">
         <v>133</v>
@@ -72166,24 +72167,24 @@
         <v>133</v>
       </c>
       <c r="G1719" s="1" t="s">
-        <v>2013</v>
+        <v>520</v>
       </c>
       <c r="H1719">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I1719">
         <v>2016</v>
       </c>
       <c r="J1719" s="1" t="s">
-        <v>4158</v>
+        <v>4155</v>
       </c>
       <c r="K1719" s="1" t="s">
-        <v>4159</v>
+        <v>4156</v>
       </c>
     </row>
     <row r="1720" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1720" s="1" t="s">
-        <v>3804</v>
+        <v>4157</v>
       </c>
       <c r="C1720" s="1" t="s">
         <v>133</v>
@@ -72201,21 +72202,21 @@
         <v>2013</v>
       </c>
       <c r="H1720">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I1720">
         <v>2016</v>
       </c>
       <c r="J1720" s="1" t="s">
-        <v>4160</v>
+        <v>4158</v>
       </c>
       <c r="K1720" s="1" t="s">
-        <v>4161</v>
+        <v>4159</v>
       </c>
     </row>
     <row r="1721" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1721" s="1" t="s">
-        <v>4162</v>
+        <v>3804</v>
       </c>
       <c r="C1721" s="1" t="s">
         <v>133</v>
@@ -72247,7 +72248,7 @@
     </row>
     <row r="1722" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1722" s="1" t="s">
-        <v>4163</v>
+        <v>4162</v>
       </c>
       <c r="C1722" s="1" t="s">
         <v>133</v>
@@ -72265,21 +72266,21 @@
         <v>2013</v>
       </c>
       <c r="H1722">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I1722">
         <v>2016</v>
       </c>
       <c r="J1722" s="1" t="s">
-        <v>4164</v>
+        <v>4160</v>
       </c>
       <c r="K1722" s="1" t="s">
-        <v>4165</v>
+        <v>4161</v>
       </c>
     </row>
     <row r="1723" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1723" s="1" t="s">
-        <v>4166</v>
+        <v>4163</v>
       </c>
       <c r="C1723" s="1" t="s">
         <v>133</v>
@@ -72311,7 +72312,7 @@
     </row>
     <row r="1724" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1724" s="1" t="s">
-        <v>4167</v>
+        <v>4166</v>
       </c>
       <c r="C1724" s="1" t="s">
         <v>133</v>
@@ -72329,21 +72330,21 @@
         <v>2013</v>
       </c>
       <c r="H1724">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="I1724">
         <v>2016</v>
       </c>
       <c r="J1724" s="1" t="s">
-        <v>4168</v>
+        <v>4164</v>
       </c>
       <c r="K1724" s="1" t="s">
-        <v>4169</v>
+        <v>4165</v>
       </c>
     </row>
     <row r="1725" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1725" s="1" t="s">
-        <v>4170</v>
+        <v>4167</v>
       </c>
       <c r="C1725" s="1" t="s">
         <v>133</v>
@@ -72375,7 +72376,7 @@
     </row>
     <row r="1726" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1726" s="1" t="s">
-        <v>4171</v>
+        <v>4170</v>
       </c>
       <c r="C1726" s="1" t="s">
         <v>133</v>
@@ -72393,21 +72394,21 @@
         <v>2013</v>
       </c>
       <c r="H1726">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I1726">
         <v>2016</v>
       </c>
       <c r="J1726" s="1" t="s">
-        <v>4172</v>
+        <v>4168</v>
       </c>
       <c r="K1726" s="1" t="s">
-        <v>4173</v>
+        <v>4169</v>
       </c>
     </row>
     <row r="1727" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1727" s="1" t="s">
-        <v>4174</v>
+        <v>4171</v>
       </c>
       <c r="C1727" s="1" t="s">
         <v>133</v>
@@ -72439,7 +72440,7 @@
     </row>
     <row r="1728" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1728" s="1" t="s">
-        <v>4175</v>
+        <v>4174</v>
       </c>
       <c r="C1728" s="1" t="s">
         <v>133</v>
@@ -72463,15 +72464,15 @@
         <v>2016</v>
       </c>
       <c r="J1728" s="1" t="s">
-        <v>4176</v>
+        <v>4172</v>
       </c>
       <c r="K1728" s="1" t="s">
-        <v>4177</v>
+        <v>4173</v>
       </c>
     </row>
     <row r="1729" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1729" s="1" t="s">
-        <v>4178</v>
+        <v>4175</v>
       </c>
       <c r="C1729" s="1" t="s">
         <v>133</v>
@@ -72503,7 +72504,7 @@
     </row>
     <row r="1730" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1730" s="1" t="s">
-        <v>4193</v>
+        <v>4178</v>
       </c>
       <c r="C1730" s="1" t="s">
         <v>133</v>
@@ -72518,7 +72519,7 @@
         <v>133</v>
       </c>
       <c r="G1730" s="1" t="s">
-        <v>39</v>
+        <v>2013</v>
       </c>
       <c r="H1730">
         <v>7</v>
@@ -72527,15 +72528,15 @@
         <v>2016</v>
       </c>
       <c r="J1730" s="1" t="s">
-        <v>4194</v>
+        <v>4176</v>
       </c>
       <c r="K1730" s="1" t="s">
-        <v>4195</v>
+        <v>4177</v>
       </c>
     </row>
     <row r="1731" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1731" s="1" t="s">
-        <v>3828</v>
+        <v>4193</v>
       </c>
       <c r="C1731" s="1" t="s">
         <v>133</v>
@@ -72553,21 +72554,21 @@
         <v>39</v>
       </c>
       <c r="H1731">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I1731">
         <v>2016</v>
       </c>
       <c r="J1731" s="1" t="s">
-        <v>4196</v>
+        <v>4194</v>
       </c>
       <c r="K1731" s="1" t="s">
-        <v>4197</v>
+        <v>4195</v>
       </c>
     </row>
     <row r="1732" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1732" s="1" t="s">
-        <v>4198</v>
+        <v>3828</v>
       </c>
       <c r="C1732" s="1" t="s">
         <v>133</v>
@@ -72591,15 +72592,15 @@
         <v>2016</v>
       </c>
       <c r="J1732" s="1" t="s">
-        <v>4199</v>
+        <v>4196</v>
       </c>
       <c r="K1732" s="1" t="s">
-        <v>4200</v>
+        <v>4197</v>
       </c>
     </row>
     <row r="1733" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1733" s="1" t="s">
-        <v>4201</v>
+        <v>4198</v>
       </c>
       <c r="C1733" s="1" t="s">
         <v>133</v>
@@ -72617,21 +72618,21 @@
         <v>39</v>
       </c>
       <c r="H1733">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I1733">
         <v>2016</v>
       </c>
       <c r="J1733" s="1" t="s">
-        <v>4202</v>
+        <v>4199</v>
       </c>
       <c r="K1733" s="1" t="s">
-        <v>4203</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="1734" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1734" s="1" t="s">
-        <v>4043</v>
+        <v>4201</v>
       </c>
       <c r="C1734" s="1" t="s">
         <v>133</v>
@@ -72646,24 +72647,24 @@
         <v>133</v>
       </c>
       <c r="G1734" s="1" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="H1734">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I1734">
         <v>2016</v>
       </c>
       <c r="J1734" s="1" t="s">
-        <v>4044</v>
+        <v>4202</v>
       </c>
       <c r="K1734" s="1" t="s">
-        <v>4045</v>
+        <v>4203</v>
       </c>
     </row>
     <row r="1735" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1735" s="1" t="s">
-        <v>4046</v>
+        <v>4043</v>
       </c>
       <c r="C1735" s="1" t="s">
         <v>133</v>
@@ -72695,7 +72696,7 @@
     </row>
     <row r="1736" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1736" s="1" t="s">
-        <v>4047</v>
+        <v>4046</v>
       </c>
       <c r="C1736" s="1" t="s">
         <v>133</v>
@@ -72713,21 +72714,21 @@
         <v>55</v>
       </c>
       <c r="H1736">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I1736">
         <v>2016</v>
       </c>
       <c r="J1736" s="1" t="s">
-        <v>4048</v>
+        <v>4044</v>
       </c>
       <c r="K1736" s="1" t="s">
-        <v>4049</v>
+        <v>4045</v>
       </c>
     </row>
     <row r="1737" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1737" s="1" t="s">
-        <v>4050</v>
+        <v>4047</v>
       </c>
       <c r="C1737" s="1" t="s">
         <v>133</v>
@@ -72759,7 +72760,7 @@
     </row>
     <row r="1738" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1738" s="1" t="s">
-        <v>4051</v>
+        <v>4050</v>
       </c>
       <c r="C1738" s="1" t="s">
         <v>133</v>
@@ -72777,21 +72778,21 @@
         <v>55</v>
       </c>
       <c r="H1738">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I1738">
         <v>2016</v>
       </c>
       <c r="J1738" s="1" t="s">
-        <v>4052</v>
+        <v>4048</v>
       </c>
       <c r="K1738" s="1" t="s">
-        <v>4053</v>
+        <v>4049</v>
       </c>
     </row>
     <row r="1739" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1739" s="1" t="s">
-        <v>4054</v>
+        <v>4051</v>
       </c>
       <c r="C1739" s="1" t="s">
         <v>133</v>
@@ -72823,7 +72824,7 @@
     </row>
     <row r="1740" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1740" s="1" t="s">
-        <v>4055</v>
+        <v>4054</v>
       </c>
       <c r="C1740" s="1" t="s">
         <v>133</v>
@@ -72855,7 +72856,7 @@
     </row>
     <row r="1741" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1741" s="1" t="s">
-        <v>4056</v>
+        <v>4055</v>
       </c>
       <c r="C1741" s="1" t="s">
         <v>133</v>
@@ -72873,21 +72874,21 @@
         <v>55</v>
       </c>
       <c r="H1741">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1741">
         <v>2016</v>
       </c>
       <c r="J1741" s="1" t="s">
-        <v>4057</v>
+        <v>4052</v>
       </c>
       <c r="K1741" s="1" t="s">
-        <v>4058</v>
+        <v>4053</v>
       </c>
     </row>
     <row r="1742" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1742" s="1" t="s">
-        <v>4059</v>
+        <v>4056</v>
       </c>
       <c r="C1742" s="1" t="s">
         <v>133</v>
@@ -72905,21 +72906,21 @@
         <v>55</v>
       </c>
       <c r="H1742">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I1742">
         <v>2016</v>
       </c>
       <c r="J1742" s="1" t="s">
-        <v>4060</v>
+        <v>4057</v>
       </c>
       <c r="K1742" s="1" t="s">
-        <v>4061</v>
+        <v>4058</v>
       </c>
     </row>
     <row r="1743" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1743" s="1" t="s">
-        <v>4062</v>
+        <v>4059</v>
       </c>
       <c r="C1743" s="1" t="s">
         <v>133</v>
@@ -72934,24 +72935,24 @@
         <v>133</v>
       </c>
       <c r="G1743" s="1" t="s">
-        <v>122</v>
+        <v>55</v>
       </c>
       <c r="H1743">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I1743">
         <v>2016</v>
       </c>
       <c r="J1743" s="1" t="s">
-        <v>4063</v>
+        <v>4060</v>
       </c>
       <c r="K1743" s="1" t="s">
-        <v>4064</v>
+        <v>4061</v>
       </c>
     </row>
     <row r="1744" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1744" s="1" t="s">
-        <v>4065</v>
+        <v>4062</v>
       </c>
       <c r="C1744" s="1" t="s">
         <v>133</v>
@@ -72975,15 +72976,15 @@
         <v>2016</v>
       </c>
       <c r="J1744" s="1" t="s">
-        <v>4066</v>
+        <v>4063</v>
       </c>
       <c r="K1744" s="1" t="s">
-        <v>4067</v>
+        <v>4064</v>
       </c>
     </row>
     <row r="1745" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1745" s="1" t="s">
-        <v>3893</v>
+        <v>4065</v>
       </c>
       <c r="C1745" s="1" t="s">
         <v>133</v>
@@ -72998,24 +72999,24 @@
         <v>133</v>
       </c>
       <c r="G1745" s="1" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="H1745">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I1745">
         <v>2016</v>
       </c>
       <c r="J1745" s="1" t="s">
-        <v>4101</v>
+        <v>4066</v>
       </c>
       <c r="K1745" s="1" t="s">
-        <v>4102</v>
+        <v>4067</v>
       </c>
     </row>
     <row r="1746" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1746" s="1" t="s">
-        <v>4103</v>
+        <v>3893</v>
       </c>
       <c r="C1746" s="1" t="s">
         <v>133</v>
@@ -73047,7 +73048,7 @@
     </row>
     <row r="1747" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1747" s="1" t="s">
-        <v>4104</v>
+        <v>4103</v>
       </c>
       <c r="C1747" s="1" t="s">
         <v>133</v>
@@ -73065,21 +73066,21 @@
         <v>100</v>
       </c>
       <c r="H1747">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I1747">
         <v>2016</v>
       </c>
       <c r="J1747" s="1" t="s">
-        <v>4105</v>
+        <v>4101</v>
       </c>
       <c r="K1747" s="1" t="s">
-        <v>4106</v>
+        <v>4102</v>
       </c>
     </row>
     <row r="1748" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1748" s="1" t="s">
-        <v>4107</v>
+        <v>4104</v>
       </c>
       <c r="C1748" s="1" t="s">
         <v>133</v>
@@ -73097,21 +73098,21 @@
         <v>100</v>
       </c>
       <c r="H1748">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I1748">
         <v>2016</v>
       </c>
       <c r="J1748" s="1" t="s">
-        <v>4108</v>
+        <v>4105</v>
       </c>
       <c r="K1748" s="1" t="s">
-        <v>4109</v>
+        <v>4106</v>
       </c>
     </row>
     <row r="1749" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1749" s="1" t="s">
-        <v>4110</v>
+        <v>4107</v>
       </c>
       <c r="C1749" s="1" t="s">
         <v>133</v>
@@ -73135,15 +73136,15 @@
         <v>2016</v>
       </c>
       <c r="J1749" s="1" t="s">
-        <v>4111</v>
+        <v>4108</v>
       </c>
       <c r="K1749" s="1" t="s">
-        <v>4112</v>
+        <v>4109</v>
       </c>
     </row>
     <row r="1750" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1750" s="1" t="s">
-        <v>4113</v>
+        <v>4110</v>
       </c>
       <c r="C1750" s="1" t="s">
         <v>133</v>
@@ -73161,21 +73162,21 @@
         <v>100</v>
       </c>
       <c r="H1750">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I1750">
         <v>2016</v>
       </c>
       <c r="J1750" s="1" t="s">
-        <v>4114</v>
+        <v>4111</v>
       </c>
       <c r="K1750" s="1" t="s">
-        <v>4115</v>
+        <v>4112</v>
       </c>
     </row>
     <row r="1751" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1751" s="1" t="s">
-        <v>3932</v>
+        <v>4113</v>
       </c>
       <c r="C1751" s="1" t="s">
         <v>133</v>
@@ -73193,21 +73194,21 @@
         <v>100</v>
       </c>
       <c r="H1751">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I1751">
         <v>2016</v>
       </c>
       <c r="J1751" s="1" t="s">
-        <v>4116</v>
+        <v>4114</v>
       </c>
       <c r="K1751" s="1" t="s">
-        <v>4117</v>
+        <v>4115</v>
       </c>
     </row>
     <row r="1752" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1752" s="1" t="s">
-        <v>4118</v>
+        <v>3932</v>
       </c>
       <c r="C1752" s="1" t="s">
         <v>133</v>
@@ -73222,24 +73223,24 @@
         <v>133</v>
       </c>
       <c r="G1752" s="1" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="H1752">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I1752">
         <v>2016</v>
       </c>
       <c r="J1752" s="1" t="s">
-        <v>4119</v>
+        <v>4116</v>
       </c>
       <c r="K1752" s="1" t="s">
-        <v>4120</v>
+        <v>4117</v>
       </c>
     </row>
     <row r="1753" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1753" s="1" t="s">
-        <v>4121</v>
+        <v>4118</v>
       </c>
       <c r="C1753" s="1" t="s">
         <v>133</v>
@@ -73257,21 +73258,21 @@
         <v>33</v>
       </c>
       <c r="H1753">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I1753">
         <v>2016</v>
       </c>
       <c r="J1753" s="1" t="s">
-        <v>4122</v>
+        <v>4119</v>
       </c>
       <c r="K1753" s="1" t="s">
-        <v>4123</v>
+        <v>4120</v>
       </c>
     </row>
     <row r="1754" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1754" s="1" t="s">
-        <v>4124</v>
+        <v>4121</v>
       </c>
       <c r="C1754" s="1" t="s">
         <v>133</v>
@@ -73303,7 +73304,7 @@
     </row>
     <row r="1755" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1755" s="1" t="s">
-        <v>4125</v>
+        <v>4124</v>
       </c>
       <c r="C1755" s="1" t="s">
         <v>133</v>
@@ -73327,15 +73328,15 @@
         <v>2016</v>
       </c>
       <c r="J1755" s="1" t="s">
-        <v>4126</v>
+        <v>4122</v>
       </c>
       <c r="K1755" s="1" t="s">
-        <v>4127</v>
+        <v>4123</v>
       </c>
     </row>
     <row r="1756" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1756" s="1" t="s">
-        <v>4128</v>
+        <v>4125</v>
       </c>
       <c r="C1756" s="1" t="s">
         <v>133</v>
@@ -73359,15 +73360,15 @@
         <v>2016</v>
       </c>
       <c r="J1756" s="1" t="s">
-        <v>4129</v>
+        <v>4126</v>
       </c>
       <c r="K1756" s="1" t="s">
-        <v>4130</v>
+        <v>4127</v>
       </c>
     </row>
     <row r="1757" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1757" s="1" t="s">
-        <v>4013</v>
+        <v>4128</v>
       </c>
       <c r="C1757" s="1" t="s">
         <v>133</v>
@@ -73382,24 +73383,24 @@
         <v>133</v>
       </c>
       <c r="G1757" s="1" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="H1757">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I1757">
         <v>2016</v>
       </c>
       <c r="J1757" s="1" t="s">
-        <v>4014</v>
+        <v>4129</v>
       </c>
       <c r="K1757" s="1" t="s">
-        <v>4015</v>
+        <v>4130</v>
       </c>
     </row>
     <row r="1758" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1758" s="1" t="s">
-        <v>3837</v>
+        <v>4013</v>
       </c>
       <c r="C1758" s="1" t="s">
         <v>133</v>
@@ -73417,21 +73418,21 @@
         <v>129</v>
       </c>
       <c r="H1758">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I1758">
         <v>2016</v>
       </c>
       <c r="J1758" s="1" t="s">
-        <v>4016</v>
+        <v>4014</v>
       </c>
       <c r="K1758" s="1" t="s">
-        <v>4017</v>
+        <v>4015</v>
       </c>
     </row>
     <row r="1759" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1759" s="1" t="s">
-        <v>4018</v>
+        <v>3837</v>
       </c>
       <c r="C1759" s="1" t="s">
         <v>133</v>
@@ -73449,21 +73450,21 @@
         <v>129</v>
       </c>
       <c r="H1759">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I1759">
         <v>2016</v>
       </c>
       <c r="J1759" s="1" t="s">
-        <v>4019</v>
+        <v>4016</v>
       </c>
       <c r="K1759" s="1" t="s">
-        <v>4020</v>
+        <v>4017</v>
       </c>
     </row>
     <row r="1760" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1760" s="1" t="s">
-        <v>4021</v>
+        <v>4018</v>
       </c>
       <c r="C1760" s="1" t="s">
         <v>133</v>
@@ -73495,7 +73496,7 @@
     </row>
     <row r="1761" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1761" s="1" t="s">
-        <v>4022</v>
+        <v>4021</v>
       </c>
       <c r="C1761" s="1" t="s">
         <v>133</v>
@@ -73513,21 +73514,21 @@
         <v>129</v>
       </c>
       <c r="H1761">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I1761">
         <v>2016</v>
       </c>
       <c r="J1761" s="1" t="s">
-        <v>4023</v>
+        <v>4019</v>
       </c>
       <c r="K1761" s="1" t="s">
-        <v>4024</v>
+        <v>4020</v>
       </c>
     </row>
     <row r="1762" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1762" s="1" t="s">
-        <v>1172</v>
+        <v>4022</v>
       </c>
       <c r="C1762" s="1" t="s">
         <v>133</v>
@@ -73542,24 +73543,24 @@
         <v>133</v>
       </c>
       <c r="G1762" s="1" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="H1762">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="I1762">
         <v>2016</v>
       </c>
       <c r="J1762" s="1" t="s">
-        <v>4025</v>
+        <v>4023</v>
       </c>
       <c r="K1762" s="1" t="s">
-        <v>4026</v>
+        <v>4024</v>
       </c>
     </row>
     <row r="1763" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1763" s="1" t="s">
-        <v>4027</v>
+        <v>1172</v>
       </c>
       <c r="C1763" s="1" t="s">
         <v>133</v>
@@ -73577,21 +73578,21 @@
         <v>152</v>
       </c>
       <c r="H1763">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I1763">
         <v>2016</v>
       </c>
       <c r="J1763" s="1" t="s">
-        <v>4028</v>
+        <v>4025</v>
       </c>
       <c r="K1763" s="1" t="s">
-        <v>4029</v>
+        <v>4026</v>
       </c>
     </row>
     <row r="1764" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1764" s="1" t="s">
-        <v>4131</v>
+        <v>4027</v>
       </c>
       <c r="C1764" s="1" t="s">
         <v>133</v>
@@ -73606,7 +73607,7 @@
         <v>133</v>
       </c>
       <c r="G1764" s="1" t="s">
-        <v>602</v>
+        <v>152</v>
       </c>
       <c r="H1764">
         <v>16</v>
@@ -73615,15 +73616,15 @@
         <v>2016</v>
       </c>
       <c r="J1764" s="1" t="s">
-        <v>4132</v>
+        <v>4028</v>
       </c>
       <c r="K1764" s="1" t="s">
-        <v>4133</v>
+        <v>4029</v>
       </c>
     </row>
     <row r="1765" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1765" s="1" t="s">
-        <v>3968</v>
+        <v>4131</v>
       </c>
       <c r="C1765" s="1" t="s">
         <v>133</v>
@@ -73641,21 +73642,21 @@
         <v>602</v>
       </c>
       <c r="H1765">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I1765">
         <v>2016</v>
       </c>
       <c r="J1765" s="1" t="s">
-        <v>4134</v>
+        <v>4132</v>
       </c>
       <c r="K1765" s="1" t="s">
-        <v>4135</v>
+        <v>4133</v>
       </c>
     </row>
     <row r="1766" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1766" s="1" t="s">
-        <v>4136</v>
+        <v>3968</v>
       </c>
       <c r="C1766" s="1" t="s">
         <v>133</v>
@@ -73673,21 +73674,21 @@
         <v>602</v>
       </c>
       <c r="H1766">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I1766">
         <v>2016</v>
       </c>
       <c r="J1766" s="1" t="s">
-        <v>4137</v>
+        <v>4134</v>
       </c>
       <c r="K1766" s="1" t="s">
-        <v>4138</v>
+        <v>4135</v>
       </c>
     </row>
     <row r="1767" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1767" s="1" t="s">
-        <v>3773</v>
+        <v>4136</v>
       </c>
       <c r="C1767" s="1" t="s">
         <v>133</v>
@@ -73711,15 +73712,15 @@
         <v>2016</v>
       </c>
       <c r="J1767" s="1" t="s">
-        <v>4139</v>
+        <v>4137</v>
       </c>
       <c r="K1767" s="1" t="s">
-        <v>4140</v>
+        <v>4138</v>
       </c>
     </row>
     <row r="1768" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1768" s="1" t="s">
-        <v>4141</v>
+        <v>3773</v>
       </c>
       <c r="C1768" s="1" t="s">
         <v>133</v>
@@ -73737,21 +73738,21 @@
         <v>602</v>
       </c>
       <c r="H1768">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I1768">
         <v>2016</v>
       </c>
       <c r="J1768" s="1" t="s">
-        <v>4142</v>
+        <v>4139</v>
       </c>
       <c r="K1768" s="1" t="s">
-        <v>4143</v>
+        <v>4140</v>
       </c>
     </row>
     <row r="1769" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1769" s="1" t="s">
-        <v>1524</v>
+        <v>4141</v>
       </c>
       <c r="C1769" s="1" t="s">
         <v>133</v>
@@ -73766,24 +73767,24 @@
         <v>133</v>
       </c>
       <c r="G1769" s="1" t="s">
-        <v>158</v>
+        <v>602</v>
       </c>
       <c r="H1769">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I1769">
         <v>2016</v>
       </c>
       <c r="J1769" s="1" t="s">
-        <v>4144</v>
+        <v>4142</v>
       </c>
       <c r="K1769" s="1" t="s">
-        <v>4145</v>
+        <v>4143</v>
       </c>
     </row>
     <row r="1770" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1770" s="1" t="s">
-        <v>3986</v>
+        <v>1524</v>
       </c>
       <c r="C1770" s="1" t="s">
         <v>133</v>
@@ -73801,21 +73802,21 @@
         <v>158</v>
       </c>
       <c r="H1770">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I1770">
         <v>2016</v>
       </c>
       <c r="J1770" s="1" t="s">
-        <v>4146</v>
+        <v>4144</v>
       </c>
       <c r="K1770" s="1" t="s">
-        <v>4147</v>
+        <v>4145</v>
       </c>
     </row>
     <row r="1771" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1771" s="1" t="s">
-        <v>4179</v>
+        <v>3986</v>
       </c>
       <c r="C1771" s="1" t="s">
         <v>133</v>
@@ -73830,24 +73831,24 @@
         <v>133</v>
       </c>
       <c r="G1771" s="1" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="H1771">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I1771">
         <v>2016</v>
       </c>
       <c r="J1771" s="1" t="s">
-        <v>4180</v>
+        <v>4146</v>
       </c>
       <c r="K1771" s="1" t="s">
-        <v>4181</v>
+        <v>4147</v>
       </c>
     </row>
     <row r="1772" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1772" s="1" t="s">
-        <v>4182</v>
+        <v>4179</v>
       </c>
       <c r="C1772" s="1" t="s">
         <v>133</v>
@@ -73865,21 +73866,21 @@
         <v>170</v>
       </c>
       <c r="H1772">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I1772">
         <v>2016</v>
       </c>
       <c r="J1772" s="1" t="s">
-        <v>4183</v>
+        <v>4180</v>
       </c>
       <c r="K1772" s="1" t="s">
-        <v>4184</v>
+        <v>4181</v>
       </c>
     </row>
     <row r="1773" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1773" s="1" t="s">
-        <v>4185</v>
+        <v>4182</v>
       </c>
       <c r="C1773" s="1" t="s">
         <v>133</v>
@@ -73911,7 +73912,7 @@
     </row>
     <row r="1774" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1774" s="1" t="s">
-        <v>4186</v>
+        <v>4185</v>
       </c>
       <c r="C1774" s="1" t="s">
         <v>133</v>
@@ -73935,15 +73936,15 @@
         <v>2016</v>
       </c>
       <c r="J1774" s="1" t="s">
-        <v>4187</v>
+        <v>4183</v>
       </c>
       <c r="K1774" s="1" t="s">
-        <v>4188</v>
+        <v>4184</v>
       </c>
     </row>
     <row r="1775" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1775" s="1" t="s">
-        <v>4189</v>
+        <v>4186</v>
       </c>
       <c r="C1775" s="1" t="s">
         <v>133</v>
@@ -73975,7 +73976,7 @@
     </row>
     <row r="1776" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1776" s="1" t="s">
-        <v>4190</v>
+        <v>4189</v>
       </c>
       <c r="C1776" s="1" t="s">
         <v>133</v>
@@ -74007,7 +74008,7 @@
     </row>
     <row r="1777" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1777" s="1" t="s">
-        <v>4001</v>
+        <v>4190</v>
       </c>
       <c r="C1777" s="1" t="s">
         <v>133</v>
@@ -74025,21 +74026,21 @@
         <v>170</v>
       </c>
       <c r="H1777">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I1777">
         <v>2016</v>
       </c>
       <c r="J1777" s="1" t="s">
-        <v>4191</v>
+        <v>4187</v>
       </c>
       <c r="K1777" s="1" t="s">
-        <v>4192</v>
+        <v>4188</v>
       </c>
     </row>
     <row r="1778" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1778" s="1" t="s">
-        <v>4068</v>
+        <v>4001</v>
       </c>
       <c r="C1778" s="1" t="s">
         <v>133</v>
@@ -74054,24 +74055,24 @@
         <v>133</v>
       </c>
       <c r="G1778" s="1" t="s">
-        <v>3469</v>
+        <v>170</v>
       </c>
       <c r="H1778">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1778">
         <v>2016</v>
       </c>
       <c r="J1778" s="1" t="s">
-        <v>4069</v>
+        <v>4191</v>
       </c>
       <c r="K1778" s="1" t="s">
-        <v>4070</v>
+        <v>4192</v>
       </c>
     </row>
     <row r="1779" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1779" s="1" t="s">
-        <v>4039</v>
+        <v>4068</v>
       </c>
       <c r="C1779" s="1" t="s">
         <v>133</v>
@@ -74086,24 +74087,24 @@
         <v>133</v>
       </c>
       <c r="G1779" s="1" t="s">
-        <v>16</v>
+        <v>3469</v>
       </c>
       <c r="H1779">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="I1779">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="J1779" s="1" t="s">
-        <v>4204</v>
+        <v>4069</v>
       </c>
       <c r="K1779" s="1" t="s">
-        <v>4205</v>
+        <v>4070</v>
       </c>
     </row>
     <row r="1780" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1780" s="1" t="s">
-        <v>4036</v>
+        <v>4039</v>
       </c>
       <c r="C1780" s="1" t="s">
         <v>133</v>
@@ -74135,7 +74136,7 @@
     </row>
     <row r="1781" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1781" s="1" t="s">
-        <v>4206</v>
+        <v>4036</v>
       </c>
       <c r="C1781" s="1" t="s">
         <v>133</v>
@@ -74167,7 +74168,7 @@
     </row>
     <row r="1782" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1782" s="1" t="s">
-        <v>4207</v>
+        <v>4206</v>
       </c>
       <c r="C1782" s="1" t="s">
         <v>133</v>
@@ -74185,21 +74186,21 @@
         <v>16</v>
       </c>
       <c r="H1782">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I1782">
         <v>2017</v>
       </c>
       <c r="J1782" s="1" t="s">
-        <v>4208</v>
+        <v>4204</v>
       </c>
       <c r="K1782" s="1" t="s">
-        <v>4209</v>
+        <v>4205</v>
       </c>
     </row>
     <row r="1783" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1783" s="1" t="s">
-        <v>4210</v>
+        <v>4207</v>
       </c>
       <c r="C1783" s="1" t="s">
         <v>133</v>
@@ -74217,21 +74218,21 @@
         <v>16</v>
       </c>
       <c r="H1783">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I1783">
         <v>2017</v>
       </c>
       <c r="J1783" s="1" t="s">
-        <v>4211</v>
+        <v>4208</v>
       </c>
       <c r="K1783" s="1" t="s">
-        <v>4212</v>
+        <v>4209</v>
       </c>
     </row>
     <row r="1784" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1784" s="1" t="s">
-        <v>4213</v>
+        <v>4210</v>
       </c>
       <c r="C1784" s="1" t="s">
         <v>133</v>
@@ -74249,21 +74250,21 @@
         <v>16</v>
       </c>
       <c r="H1784">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I1784">
         <v>2017</v>
       </c>
       <c r="J1784" s="1" t="s">
-        <v>4214</v>
+        <v>4211</v>
       </c>
       <c r="K1784" s="1" t="s">
-        <v>4215</v>
+        <v>4212</v>
       </c>
     </row>
     <row r="1785" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1785" s="1" t="s">
-        <v>4216</v>
+        <v>4213</v>
       </c>
       <c r="C1785" s="1" t="s">
         <v>133</v>
@@ -74281,21 +74282,21 @@
         <v>16</v>
       </c>
       <c r="H1785">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I1785">
         <v>2017</v>
       </c>
       <c r="J1785" s="1" t="s">
-        <v>4217</v>
+        <v>4214</v>
       </c>
       <c r="K1785" s="1" t="s">
-        <v>4218</v>
+        <v>4215</v>
       </c>
     </row>
     <row r="1786" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1786" s="1" t="s">
-        <v>4219</v>
+        <v>4216</v>
       </c>
       <c r="C1786" s="1" t="s">
         <v>133</v>
@@ -74313,21 +74314,21 @@
         <v>16</v>
       </c>
       <c r="H1786">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I1786">
         <v>2017</v>
       </c>
       <c r="J1786" s="1" t="s">
-        <v>4220</v>
+        <v>4217</v>
       </c>
       <c r="K1786" s="1" t="s">
-        <v>4221</v>
+        <v>4218</v>
       </c>
     </row>
     <row r="1787" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1787" s="1" t="s">
-        <v>4222</v>
+        <v>4219</v>
       </c>
       <c r="C1787" s="1" t="s">
         <v>133</v>
@@ -74345,21 +74346,21 @@
         <v>16</v>
       </c>
       <c r="H1787">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="I1787">
         <v>2017</v>
       </c>
       <c r="J1787" s="1" t="s">
-        <v>4223</v>
+        <v>4220</v>
       </c>
       <c r="K1787" s="1" t="s">
-        <v>4224</v>
+        <v>4221</v>
       </c>
     </row>
     <row r="1788" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1788" s="1" t="s">
-        <v>4225</v>
+        <v>4222</v>
       </c>
       <c r="C1788" s="1" t="s">
         <v>133</v>
@@ -74377,21 +74378,21 @@
         <v>16</v>
       </c>
       <c r="H1788">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I1788">
         <v>2017</v>
       </c>
       <c r="J1788" s="1" t="s">
-        <v>4226</v>
+        <v>4223</v>
       </c>
       <c r="K1788" s="1" t="s">
-        <v>4227</v>
+        <v>4224</v>
       </c>
     </row>
     <row r="1789" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1789" s="1" t="s">
-        <v>4080</v>
+        <v>4225</v>
       </c>
       <c r="C1789" s="1" t="s">
         <v>133</v>
@@ -74406,24 +74407,24 @@
         <v>133</v>
       </c>
       <c r="G1789" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H1789">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I1789">
         <v>2017</v>
       </c>
       <c r="J1789" s="1" t="s">
-        <v>4228</v>
+        <v>4226</v>
       </c>
       <c r="K1789" s="1" t="s">
-        <v>4229</v>
+        <v>4227</v>
       </c>
     </row>
     <row r="1790" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1790" s="1" t="s">
-        <v>4230</v>
+        <v>4080</v>
       </c>
       <c r="C1790" s="1" t="s">
         <v>133</v>
@@ -74455,7 +74456,7 @@
     </row>
     <row r="1791" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1791" s="1" t="s">
-        <v>4071</v>
+        <v>4230</v>
       </c>
       <c r="C1791" s="1" t="s">
         <v>133</v>
@@ -74473,21 +74474,21 @@
         <v>23</v>
       </c>
       <c r="H1791">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I1791">
         <v>2017</v>
       </c>
       <c r="J1791" s="1" t="s">
-        <v>4231</v>
+        <v>4228</v>
       </c>
       <c r="K1791" s="1" t="s">
-        <v>4232</v>
+        <v>4229</v>
       </c>
     </row>
     <row r="1792" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1792" s="1" t="s">
-        <v>4233</v>
+        <v>4071</v>
       </c>
       <c r="C1792" s="1" t="s">
         <v>133</v>
@@ -74519,7 +74520,7 @@
     </row>
     <row r="1793" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1793" s="1" t="s">
-        <v>4097</v>
+        <v>4233</v>
       </c>
       <c r="C1793" s="1" t="s">
         <v>133</v>
@@ -74537,21 +74538,21 @@
         <v>23</v>
       </c>
       <c r="H1793">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I1793">
         <v>2017</v>
       </c>
       <c r="J1793" s="1" t="s">
-        <v>4234</v>
+        <v>4231</v>
       </c>
       <c r="K1793" s="1" t="s">
-        <v>4235</v>
+        <v>4232</v>
       </c>
     </row>
     <row r="1794" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1794" s="1" t="s">
-        <v>4084</v>
+        <v>4097</v>
       </c>
       <c r="C1794" s="1" t="s">
         <v>133</v>
@@ -74569,21 +74570,21 @@
         <v>23</v>
       </c>
       <c r="H1794">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I1794">
         <v>2017</v>
       </c>
       <c r="J1794" s="1" t="s">
-        <v>4236</v>
+        <v>4234</v>
       </c>
       <c r="K1794" s="1" t="s">
-        <v>4237</v>
+        <v>4235</v>
       </c>
     </row>
     <row r="1795" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1795" s="1" t="s">
-        <v>4087</v>
+        <v>4084</v>
       </c>
       <c r="C1795" s="1" t="s">
         <v>133</v>
@@ -74615,7 +74616,7 @@
     </row>
     <row r="1796" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1796" s="1" t="s">
-        <v>4238</v>
+        <v>4087</v>
       </c>
       <c r="C1796" s="1" t="s">
         <v>133</v>
@@ -74633,21 +74634,21 @@
         <v>23</v>
       </c>
       <c r="H1796">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I1796">
         <v>2017</v>
       </c>
       <c r="J1796" s="1" t="s">
-        <v>4239</v>
+        <v>4236</v>
       </c>
       <c r="K1796" s="1" t="s">
-        <v>4240</v>
+        <v>4237</v>
       </c>
     </row>
     <row r="1797" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1797" s="1" t="s">
-        <v>4241</v>
+        <v>4238</v>
       </c>
       <c r="C1797" s="1" t="s">
         <v>133</v>
@@ -74665,21 +74666,21 @@
         <v>23</v>
       </c>
       <c r="H1797">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I1797">
         <v>2017</v>
       </c>
       <c r="J1797" s="1" t="s">
-        <v>4242</v>
+        <v>4239</v>
       </c>
       <c r="K1797" s="1" t="s">
-        <v>4243</v>
+        <v>4240</v>
       </c>
     </row>
     <row r="1798" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1798" s="1" t="s">
-        <v>4244</v>
+        <v>4241</v>
       </c>
       <c r="C1798" s="1" t="s">
         <v>133</v>
@@ -74697,21 +74698,21 @@
         <v>23</v>
       </c>
       <c r="H1798">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I1798">
         <v>2017</v>
       </c>
       <c r="J1798" s="1" t="s">
-        <v>4245</v>
+        <v>4242</v>
       </c>
       <c r="K1798" s="1" t="s">
-        <v>4246</v>
+        <v>4243</v>
       </c>
     </row>
     <row r="1799" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1799" s="1" t="s">
-        <v>4094</v>
+        <v>4244</v>
       </c>
       <c r="C1799" s="1" t="s">
         <v>133</v>
@@ -74743,7 +74744,7 @@
     </row>
     <row r="1800" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1800" s="1" t="s">
-        <v>4247</v>
+        <v>4094</v>
       </c>
       <c r="C1800" s="1" t="s">
         <v>133</v>
@@ -74761,21 +74762,21 @@
         <v>23</v>
       </c>
       <c r="H1800">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I1800">
         <v>2017</v>
       </c>
       <c r="J1800" s="1" t="s">
-        <v>4248</v>
+        <v>4245</v>
       </c>
       <c r="K1800" s="1" t="s">
-        <v>4249</v>
+        <v>4246</v>
       </c>
     </row>
     <row r="1801" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1801" s="1" t="s">
-        <v>4250</v>
+        <v>4247</v>
       </c>
       <c r="C1801" s="1" t="s">
         <v>133</v>
@@ -74807,7 +74808,7 @@
     </row>
     <row r="1802" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1802" s="1" t="s">
-        <v>4193</v>
+        <v>4250</v>
       </c>
       <c r="C1802" s="1" t="s">
         <v>133</v>
@@ -74825,21 +74826,21 @@
         <v>23</v>
       </c>
       <c r="H1802">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I1802">
         <v>2017</v>
       </c>
       <c r="J1802" s="1" t="s">
-        <v>4251</v>
+        <v>4248</v>
       </c>
       <c r="K1802" s="1" t="s">
-        <v>4252</v>
+        <v>4249</v>
       </c>
     </row>
     <row r="1803" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1803" s="1" t="s">
-        <v>4253</v>
+        <v>4193</v>
       </c>
       <c r="C1803" s="1" t="s">
         <v>133</v>
@@ -74871,7 +74872,7 @@
     </row>
     <row r="1804" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1804" s="1" t="s">
-        <v>4077</v>
+        <v>4253</v>
       </c>
       <c r="C1804" s="1" t="s">
         <v>133</v>
@@ -74889,21 +74890,21 @@
         <v>23</v>
       </c>
       <c r="H1804">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I1804">
         <v>2017</v>
       </c>
       <c r="J1804" s="1" t="s">
-        <v>4254</v>
+        <v>4251</v>
       </c>
       <c r="K1804" s="1" t="s">
-        <v>4255</v>
+        <v>4252</v>
       </c>
     </row>
     <row r="1805" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1805" s="1" t="s">
-        <v>4074</v>
+        <v>4077</v>
       </c>
       <c r="C1805" s="1" t="s">
         <v>133</v>
@@ -74935,7 +74936,7 @@
     </row>
     <row r="1806" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1806" s="1" t="s">
-        <v>4256</v>
+        <v>4074</v>
       </c>
       <c r="C1806" s="1" t="s">
         <v>133</v>
@@ -74953,21 +74954,21 @@
         <v>23</v>
       </c>
       <c r="H1806">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I1806">
         <v>2017</v>
       </c>
       <c r="J1806" s="1" t="s">
-        <v>4257</v>
+        <v>4254</v>
       </c>
       <c r="K1806" s="1" t="s">
-        <v>4258</v>
+        <v>4255</v>
       </c>
     </row>
     <row r="1807" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1807" s="1" t="s">
-        <v>4259</v>
+        <v>4256</v>
       </c>
       <c r="C1807" s="1" t="s">
         <v>133</v>
@@ -74982,24 +74983,24 @@
         <v>133</v>
       </c>
       <c r="G1807" s="1" t="s">
-        <v>520</v>
+        <v>23</v>
       </c>
       <c r="H1807">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="I1807">
         <v>2017</v>
       </c>
       <c r="J1807" s="1" t="s">
-        <v>4260</v>
+        <v>4257</v>
       </c>
       <c r="K1807" s="1" t="s">
-        <v>4261</v>
+        <v>4258</v>
       </c>
     </row>
     <row r="1808" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1808" s="1" t="s">
-        <v>4148</v>
+        <v>4259</v>
       </c>
       <c r="C1808" s="1" t="s">
         <v>133</v>
@@ -75031,7 +75032,7 @@
     </row>
     <row r="1809" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1809" s="1" t="s">
-        <v>2152</v>
+        <v>4148</v>
       </c>
       <c r="C1809" s="1" t="s">
         <v>133</v>
@@ -75049,21 +75050,21 @@
         <v>520</v>
       </c>
       <c r="H1809">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="I1809">
         <v>2017</v>
       </c>
       <c r="J1809" s="1" t="s">
-        <v>4262</v>
+        <v>4260</v>
       </c>
       <c r="K1809" s="1" t="s">
-        <v>4263</v>
+        <v>4261</v>
       </c>
     </row>
     <row r="1810" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1810" s="1" t="s">
-        <v>4264</v>
+        <v>2152</v>
       </c>
       <c r="C1810" s="1" t="s">
         <v>133</v>
@@ -75095,7 +75096,7 @@
     </row>
     <row r="1811" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1811" s="1" t="s">
-        <v>4171</v>
+        <v>4264</v>
       </c>
       <c r="C1811" s="1" t="s">
         <v>133</v>
@@ -75110,24 +75111,24 @@
         <v>133</v>
       </c>
       <c r="G1811" s="1" t="s">
-        <v>2013</v>
+        <v>520</v>
       </c>
       <c r="H1811">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I1811">
         <v>2017</v>
       </c>
       <c r="J1811" s="1" t="s">
-        <v>4265</v>
+        <v>4262</v>
       </c>
       <c r="K1811" s="1" t="s">
-        <v>4266</v>
+        <v>4263</v>
       </c>
     </row>
     <row r="1812" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1812" s="1" t="s">
-        <v>4167</v>
+        <v>4171</v>
       </c>
       <c r="C1812" s="1" t="s">
         <v>133</v>
@@ -75159,7 +75160,7 @@
     </row>
     <row r="1813" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1813" s="1" t="s">
-        <v>4267</v>
+        <v>4167</v>
       </c>
       <c r="C1813" s="1" t="s">
         <v>133</v>
@@ -75183,15 +75184,15 @@
         <v>2017</v>
       </c>
       <c r="J1813" s="1" t="s">
-        <v>4268</v>
+        <v>4265</v>
       </c>
       <c r="K1813" s="1" t="s">
-        <v>4269</v>
+        <v>4266</v>
       </c>
     </row>
     <row r="1814" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1814" s="1" t="s">
-        <v>4270</v>
+        <v>4267</v>
       </c>
       <c r="C1814" s="1" t="s">
         <v>133</v>
@@ -75223,7 +75224,7 @@
     </row>
     <row r="1815" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1815" s="1" t="s">
-        <v>4157</v>
+        <v>4270</v>
       </c>
       <c r="C1815" s="1" t="s">
         <v>133</v>
@@ -75241,21 +75242,21 @@
         <v>2013</v>
       </c>
       <c r="H1815">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I1815">
         <v>2017</v>
       </c>
       <c r="J1815" s="1" t="s">
-        <v>4271</v>
+        <v>4268</v>
       </c>
       <c r="K1815" s="1" t="s">
-        <v>4272</v>
+        <v>4269</v>
       </c>
     </row>
     <row r="1816" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1816" s="1" t="s">
-        <v>4162</v>
+        <v>4157</v>
       </c>
       <c r="C1816" s="1" t="s">
         <v>133</v>
@@ -75287,7 +75288,7 @@
     </row>
     <row r="1817" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1817" s="1" t="s">
-        <v>4273</v>
+        <v>4162</v>
       </c>
       <c r="C1817" s="1" t="s">
         <v>133</v>
@@ -75305,21 +75306,21 @@
         <v>2013</v>
       </c>
       <c r="H1817">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="I1817">
         <v>2017</v>
       </c>
       <c r="J1817" s="1" t="s">
-        <v>4274</v>
+        <v>4271</v>
       </c>
       <c r="K1817" s="1" t="s">
-        <v>4275</v>
+        <v>4272</v>
       </c>
     </row>
     <row r="1818" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1818" s="1" t="s">
-        <v>4276</v>
+        <v>4273</v>
       </c>
       <c r="C1818" s="1" t="s">
         <v>133</v>
@@ -75351,7 +75352,7 @@
     </row>
     <row r="1819" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1819" s="1" t="s">
-        <v>4277</v>
+        <v>4276</v>
       </c>
       <c r="C1819" s="1" t="s">
         <v>133</v>
@@ -75375,15 +75376,15 @@
         <v>2017</v>
       </c>
       <c r="J1819" s="1" t="s">
-        <v>4278</v>
+        <v>4274</v>
       </c>
       <c r="K1819" s="1" t="s">
-        <v>4279</v>
+        <v>4275</v>
       </c>
     </row>
     <row r="1820" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1820" s="1" t="s">
-        <v>4174</v>
+        <v>4277</v>
       </c>
       <c r="C1820" s="1" t="s">
         <v>133</v>
@@ -75415,7 +75416,7 @@
     </row>
     <row r="1821" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1821" s="1" t="s">
-        <v>3427</v>
+        <v>4174</v>
       </c>
       <c r="C1821" s="1" t="s">
         <v>133</v>
@@ -75439,15 +75440,15 @@
         <v>2017</v>
       </c>
       <c r="J1821" s="1" t="s">
-        <v>4280</v>
+        <v>4278</v>
       </c>
       <c r="K1821" s="1" t="s">
-        <v>4281</v>
+        <v>4279</v>
       </c>
     </row>
     <row r="1822" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1822" s="1" t="s">
-        <v>4282</v>
+        <v>3427</v>
       </c>
       <c r="C1822" s="1" t="s">
         <v>133</v>
@@ -75479,7 +75480,7 @@
     </row>
     <row r="1823" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1823" s="1" t="s">
-        <v>4283</v>
+        <v>4282</v>
       </c>
       <c r="C1823" s="1" t="s">
         <v>133</v>
@@ -75497,21 +75498,21 @@
         <v>2013</v>
       </c>
       <c r="H1823">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I1823">
         <v>2017</v>
       </c>
       <c r="J1823" s="1" t="s">
-        <v>4284</v>
+        <v>4280</v>
       </c>
       <c r="K1823" s="1" t="s">
-        <v>4285</v>
+        <v>4281</v>
       </c>
     </row>
     <row r="1824" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1824" s="1" t="s">
-        <v>4286</v>
+        <v>4283</v>
       </c>
       <c r="C1824" s="1" t="s">
         <v>133</v>
@@ -75526,24 +75527,24 @@
         <v>133</v>
       </c>
       <c r="G1824" s="1" t="s">
-        <v>39</v>
+        <v>2013</v>
       </c>
       <c r="H1824">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I1824">
         <v>2017</v>
       </c>
       <c r="J1824" s="1" t="s">
-        <v>4287</v>
+        <v>4284</v>
       </c>
       <c r="K1824" s="1" t="s">
-        <v>4288</v>
+        <v>4285</v>
       </c>
     </row>
     <row r="1825" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1825" s="1" t="s">
-        <v>4289</v>
+        <v>4286</v>
       </c>
       <c r="C1825" s="1" t="s">
         <v>133</v>
@@ -75561,21 +75562,21 @@
         <v>39</v>
       </c>
       <c r="H1825">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I1825">
         <v>2017</v>
       </c>
       <c r="J1825" s="1" t="s">
-        <v>4290</v>
+        <v>4287</v>
       </c>
       <c r="K1825" s="1" t="s">
-        <v>4291</v>
+        <v>4288</v>
       </c>
     </row>
     <row r="1826" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1826" s="1" t="s">
-        <v>4198</v>
+        <v>4289</v>
       </c>
       <c r="C1826" s="1" t="s">
         <v>133</v>
@@ -75593,21 +75594,21 @@
         <v>39</v>
       </c>
       <c r="H1826">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1826">
         <v>2017</v>
       </c>
       <c r="J1826" s="1" t="s">
-        <v>4292</v>
+        <v>4290</v>
       </c>
       <c r="K1826" s="1" t="s">
-        <v>4293</v>
+        <v>4291</v>
       </c>
     </row>
     <row r="1827" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1827" s="1" t="s">
-        <v>4201</v>
+        <v>4198</v>
       </c>
       <c r="C1827" s="1" t="s">
         <v>133</v>
@@ -75625,21 +75626,21 @@
         <v>39</v>
       </c>
       <c r="H1827">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I1827">
         <v>2017</v>
       </c>
       <c r="J1827" s="1" t="s">
-        <v>4294</v>
+        <v>4292</v>
       </c>
       <c r="K1827" s="1" t="s">
-        <v>4295</v>
+        <v>4293</v>
       </c>
     </row>
     <row r="1828" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1828" s="1" t="s">
-        <v>3868</v>
+        <v>4201</v>
       </c>
       <c r="C1828" s="1" t="s">
         <v>133</v>
@@ -75654,24 +75655,24 @@
         <v>133</v>
       </c>
       <c r="G1828" s="1" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="H1828">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I1828">
         <v>2017</v>
       </c>
       <c r="J1828" s="1" t="s">
-        <v>4296</v>
+        <v>4294</v>
       </c>
       <c r="K1828" s="1" t="s">
-        <v>4297</v>
+        <v>4295</v>
       </c>
     </row>
     <row r="1829" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1829" s="1" t="s">
-        <v>4051</v>
+        <v>3868</v>
       </c>
       <c r="C1829" s="1" t="s">
         <v>133</v>
@@ -75689,21 +75690,21 @@
         <v>55</v>
       </c>
       <c r="H1829">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I1829">
         <v>2017</v>
       </c>
       <c r="J1829" s="1" t="s">
-        <v>4298</v>
+        <v>4296</v>
       </c>
       <c r="K1829" s="1" t="s">
-        <v>4299</v>
+        <v>4297</v>
       </c>
     </row>
     <row r="1830" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1830" s="1" t="s">
-        <v>4300</v>
+        <v>4051</v>
       </c>
       <c r="C1830" s="1" t="s">
         <v>133</v>
@@ -75721,21 +75722,21 @@
         <v>55</v>
       </c>
       <c r="H1830">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I1830">
         <v>2017</v>
       </c>
       <c r="J1830" s="1" t="s">
-        <v>4301</v>
+        <v>4298</v>
       </c>
       <c r="K1830" s="1" t="s">
-        <v>4302</v>
+        <v>4299</v>
       </c>
     </row>
     <row r="1831" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1831" s="1" t="s">
-        <v>4303</v>
+        <v>4300</v>
       </c>
       <c r="C1831" s="1" t="s">
         <v>133</v>
@@ -75753,21 +75754,21 @@
         <v>55</v>
       </c>
       <c r="H1831">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I1831">
         <v>2017</v>
       </c>
       <c r="J1831" s="1" t="s">
-        <v>4304</v>
+        <v>4301</v>
       </c>
       <c r="K1831" s="1" t="s">
-        <v>4305</v>
+        <v>4302</v>
       </c>
     </row>
     <row r="1832" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1832" s="1" t="s">
-        <v>4306</v>
+        <v>4303</v>
       </c>
       <c r="C1832" s="1" t="s">
         <v>133</v>
@@ -75799,7 +75800,7 @@
     </row>
     <row r="1833" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1833" s="1" t="s">
-        <v>3578</v>
+        <v>4306</v>
       </c>
       <c r="C1833" s="1" t="s">
         <v>133</v>
@@ -75831,7 +75832,7 @@
     </row>
     <row r="1834" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1834" s="1" t="s">
-        <v>4059</v>
+        <v>3578</v>
       </c>
       <c r="C1834" s="1" t="s">
         <v>133</v>
@@ -75849,21 +75850,21 @@
         <v>55</v>
       </c>
       <c r="H1834">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I1834">
         <v>2017</v>
       </c>
       <c r="J1834" s="1" t="s">
-        <v>4307</v>
+        <v>4304</v>
       </c>
       <c r="K1834" s="1" t="s">
-        <v>4308</v>
+        <v>4305</v>
       </c>
     </row>
     <row r="1835" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1835" s="1" t="s">
-        <v>4309</v>
+        <v>4059</v>
       </c>
       <c r="C1835" s="1" t="s">
         <v>133</v>
@@ -75881,21 +75882,21 @@
         <v>55</v>
       </c>
       <c r="H1835">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I1835">
         <v>2017</v>
       </c>
       <c r="J1835" s="1" t="s">
-        <v>4310</v>
+        <v>4307</v>
       </c>
       <c r="K1835" s="1" t="s">
-        <v>4311</v>
+        <v>4308</v>
       </c>
     </row>
     <row r="1836" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1836" s="1" t="s">
-        <v>1666</v>
+        <v>4309</v>
       </c>
       <c r="C1836" s="1" t="s">
         <v>133</v>
@@ -75913,21 +75914,21 @@
         <v>55</v>
       </c>
       <c r="H1836">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I1836">
         <v>2017</v>
       </c>
       <c r="J1836" s="1" t="s">
-        <v>4312</v>
+        <v>4310</v>
       </c>
       <c r="K1836" s="1" t="s">
-        <v>4313</v>
+        <v>4311</v>
       </c>
     </row>
     <row r="1837" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1837" s="1" t="s">
-        <v>4314</v>
+        <v>1666</v>
       </c>
       <c r="C1837" s="1" t="s">
         <v>133</v>
@@ -75945,21 +75946,21 @@
         <v>55</v>
       </c>
       <c r="H1837">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I1837">
         <v>2017</v>
       </c>
       <c r="J1837" s="1" t="s">
-        <v>4315</v>
+        <v>4312</v>
       </c>
       <c r="K1837" s="1" t="s">
-        <v>4316</v>
+        <v>4313</v>
       </c>
     </row>
     <row r="1838" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1838" s="1" t="s">
-        <v>4317</v>
+        <v>4314</v>
       </c>
       <c r="C1838" s="1" t="s">
         <v>133</v>
@@ -75974,24 +75975,24 @@
         <v>133</v>
       </c>
       <c r="G1838" s="1" t="s">
-        <v>122</v>
+        <v>55</v>
       </c>
       <c r="H1838">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I1838">
         <v>2017</v>
       </c>
       <c r="J1838" s="1" t="s">
-        <v>4318</v>
+        <v>4315</v>
       </c>
       <c r="K1838" s="1" t="s">
-        <v>4319</v>
+        <v>4316</v>
       </c>
     </row>
     <row r="1839" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1839" s="1" t="s">
-        <v>4320</v>
+        <v>4317</v>
       </c>
       <c r="C1839" s="1" t="s">
         <v>133</v>
@@ -76009,21 +76010,21 @@
         <v>122</v>
       </c>
       <c r="H1839">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I1839">
         <v>2017</v>
       </c>
       <c r="J1839" s="1" t="s">
-        <v>4321</v>
+        <v>4318</v>
       </c>
       <c r="K1839" s="1" t="s">
-        <v>4322</v>
+        <v>4319</v>
       </c>
     </row>
     <row r="1840" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1840" s="1" t="s">
-        <v>4323</v>
+        <v>4320</v>
       </c>
       <c r="C1840" s="1" t="s">
         <v>133</v>
@@ -76041,21 +76042,21 @@
         <v>122</v>
       </c>
       <c r="H1840">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I1840">
         <v>2017</v>
       </c>
       <c r="J1840" s="1" t="s">
-        <v>4324</v>
+        <v>4321</v>
       </c>
       <c r="K1840" s="1" t="s">
-        <v>4325</v>
+        <v>4322</v>
       </c>
     </row>
     <row r="1841" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1841" s="1" t="s">
-        <v>4326</v>
+        <v>4323</v>
       </c>
       <c r="C1841" s="1" t="s">
         <v>133</v>
@@ -76073,21 +76074,21 @@
         <v>122</v>
       </c>
       <c r="H1841">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I1841">
         <v>2017</v>
       </c>
       <c r="J1841" s="1" t="s">
-        <v>4327</v>
+        <v>4324</v>
       </c>
       <c r="K1841" s="1" t="s">
-        <v>4328</v>
+        <v>4325</v>
       </c>
     </row>
     <row r="1842" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1842" s="1" t="s">
-        <v>4329</v>
+        <v>4326</v>
       </c>
       <c r="C1842" s="1" t="s">
         <v>133</v>
@@ -76105,21 +76106,21 @@
         <v>122</v>
       </c>
       <c r="H1842">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I1842">
         <v>2017</v>
       </c>
       <c r="J1842" s="1" t="s">
-        <v>4330</v>
+        <v>4327</v>
       </c>
       <c r="K1842" s="1" t="s">
-        <v>4331</v>
+        <v>4328</v>
       </c>
     </row>
     <row r="1843" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1843" s="1" t="s">
-        <v>4104</v>
+        <v>4329</v>
       </c>
       <c r="C1843" s="1" t="s">
         <v>133</v>
@@ -76134,24 +76135,24 @@
         <v>133</v>
       </c>
       <c r="G1843" s="1" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="H1843">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I1843">
         <v>2017</v>
       </c>
       <c r="J1843" s="1" t="s">
-        <v>4332</v>
+        <v>4330</v>
       </c>
       <c r="K1843" s="1" t="s">
-        <v>4333</v>
+        <v>4331</v>
       </c>
     </row>
     <row r="1844" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1844" s="1" t="s">
-        <v>3928</v>
+        <v>4104</v>
       </c>
       <c r="C1844" s="1" t="s">
         <v>133</v>
@@ -76183,7 +76184,7 @@
     </row>
     <row r="1845" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1845" s="1" t="s">
-        <v>4334</v>
+        <v>3928</v>
       </c>
       <c r="C1845" s="1" t="s">
         <v>133</v>
@@ -76201,21 +76202,21 @@
         <v>100</v>
       </c>
       <c r="H1845">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I1845">
         <v>2017</v>
       </c>
       <c r="J1845" s="1" t="s">
-        <v>4335</v>
+        <v>4332</v>
       </c>
       <c r="K1845" s="1" t="s">
-        <v>4336</v>
+        <v>4333</v>
       </c>
     </row>
     <row r="1846" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1846" s="1" t="s">
-        <v>4337</v>
+        <v>4334</v>
       </c>
       <c r="C1846" s="1" t="s">
         <v>133</v>
@@ -76233,21 +76234,21 @@
         <v>100</v>
       </c>
       <c r="H1846">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I1846">
         <v>2017</v>
       </c>
       <c r="J1846" s="1" t="s">
-        <v>4338</v>
+        <v>4335</v>
       </c>
       <c r="K1846" s="1" t="s">
-        <v>4339</v>
+        <v>4336</v>
       </c>
     </row>
     <row r="1847" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1847" s="1" t="s">
-        <v>4340</v>
+        <v>4337</v>
       </c>
       <c r="C1847" s="1" t="s">
         <v>133</v>
@@ -76265,21 +76266,21 @@
         <v>100</v>
       </c>
       <c r="H1847">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I1847">
         <v>2017</v>
       </c>
       <c r="J1847" s="1" t="s">
-        <v>4341</v>
+        <v>4338</v>
       </c>
       <c r="K1847" s="1" t="s">
-        <v>4342</v>
+        <v>4339</v>
       </c>
     </row>
     <row r="1848" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1848" s="1" t="s">
-        <v>4343</v>
+        <v>4340</v>
       </c>
       <c r="C1848" s="1" t="s">
         <v>133</v>
@@ -76297,21 +76298,21 @@
         <v>100</v>
       </c>
       <c r="H1848">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I1848">
         <v>2017</v>
       </c>
       <c r="J1848" s="1" t="s">
-        <v>4344</v>
+        <v>4341</v>
       </c>
       <c r="K1848" s="1" t="s">
-        <v>4345</v>
+        <v>4342</v>
       </c>
     </row>
     <row r="1849" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1849" s="1" t="s">
-        <v>4346</v>
+        <v>4343</v>
       </c>
       <c r="C1849" s="1" t="s">
         <v>133</v>
@@ -76329,21 +76330,21 @@
         <v>100</v>
       </c>
       <c r="H1849">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I1849">
         <v>2017</v>
       </c>
       <c r="J1849" s="1" t="s">
-        <v>4347</v>
+        <v>4344</v>
       </c>
       <c r="K1849" s="1" t="s">
-        <v>4348</v>
+        <v>4345</v>
       </c>
     </row>
     <row r="1850" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1850" s="1" t="s">
-        <v>4349</v>
+        <v>4346</v>
       </c>
       <c r="C1850" s="1" t="s">
         <v>133</v>
@@ -76375,7 +76376,7 @@
     </row>
     <row r="1851" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1851" s="1" t="s">
-        <v>4350</v>
+        <v>4349</v>
       </c>
       <c r="C1851" s="1" t="s">
         <v>133</v>
@@ -76399,15 +76400,15 @@
         <v>2017</v>
       </c>
       <c r="J1851" s="1" t="s">
-        <v>4351</v>
+        <v>4347</v>
       </c>
       <c r="K1851" s="1" t="s">
-        <v>4352</v>
+        <v>4348</v>
       </c>
     </row>
     <row r="1852" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1852" s="1" t="s">
-        <v>4353</v>
+        <v>4350</v>
       </c>
       <c r="C1852" s="1" t="s">
         <v>133</v>
@@ -76425,21 +76426,21 @@
         <v>100</v>
       </c>
       <c r="H1852">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I1852">
         <v>2017</v>
       </c>
       <c r="J1852" s="1" t="s">
-        <v>4354</v>
+        <v>4351</v>
       </c>
       <c r="K1852" s="1" t="s">
-        <v>4355</v>
+        <v>4352</v>
       </c>
     </row>
     <row r="1853" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1853" s="1" t="s">
-        <v>4110</v>
+        <v>4353</v>
       </c>
       <c r="C1853" s="1" t="s">
         <v>133</v>
@@ -76457,21 +76458,21 @@
         <v>100</v>
       </c>
       <c r="H1853">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I1853">
         <v>2017</v>
       </c>
       <c r="J1853" s="1" t="s">
-        <v>4356</v>
+        <v>4354</v>
       </c>
       <c r="K1853" s="1" t="s">
-        <v>4357</v>
+        <v>4355</v>
       </c>
     </row>
     <row r="1854" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1854" s="1" t="s">
-        <v>4107</v>
+        <v>4110</v>
       </c>
       <c r="C1854" s="1" t="s">
         <v>133</v>
@@ -76489,21 +76490,21 @@
         <v>100</v>
       </c>
       <c r="H1854">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I1854">
         <v>2017</v>
       </c>
       <c r="J1854" s="1" t="s">
-        <v>4358</v>
+        <v>4356</v>
       </c>
       <c r="K1854" s="1" t="s">
-        <v>4359</v>
+        <v>4357</v>
       </c>
     </row>
     <row r="1855" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1855" s="1" t="s">
-        <v>4360</v>
+        <v>4107</v>
       </c>
       <c r="C1855" s="1" t="s">
         <v>133</v>
@@ -76518,24 +76519,24 @@
         <v>133</v>
       </c>
       <c r="G1855" s="1" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="H1855">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I1855">
         <v>2017</v>
       </c>
       <c r="J1855" s="1" t="s">
-        <v>4361</v>
+        <v>4358</v>
       </c>
       <c r="K1855" s="1" t="s">
-        <v>4362</v>
+        <v>4359</v>
       </c>
     </row>
     <row r="1856" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1856" s="1" t="s">
-        <v>4363</v>
+        <v>4360</v>
       </c>
       <c r="C1856" s="1" t="s">
         <v>133</v>
@@ -76553,21 +76554,21 @@
         <v>33</v>
       </c>
       <c r="H1856">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I1856">
         <v>2017</v>
       </c>
       <c r="J1856" s="1" t="s">
-        <v>4364</v>
+        <v>4361</v>
       </c>
       <c r="K1856" s="1" t="s">
-        <v>4365</v>
+        <v>4362</v>
       </c>
     </row>
     <row r="1857" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1857" s="1" t="s">
-        <v>4124</v>
+        <v>4363</v>
       </c>
       <c r="C1857" s="1" t="s">
         <v>133</v>
@@ -76585,21 +76586,21 @@
         <v>33</v>
       </c>
       <c r="H1857">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I1857">
         <v>2017</v>
       </c>
       <c r="J1857" s="1" t="s">
-        <v>4366</v>
+        <v>4364</v>
       </c>
       <c r="K1857" s="1" t="s">
-        <v>4367</v>
+        <v>4365</v>
       </c>
     </row>
     <row r="1858" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1858" s="1" t="s">
-        <v>4125</v>
+        <v>4124</v>
       </c>
       <c r="C1858" s="1" t="s">
         <v>133</v>
@@ -76617,21 +76618,21 @@
         <v>33</v>
       </c>
       <c r="H1858">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I1858">
         <v>2017</v>
       </c>
       <c r="J1858" s="1" t="s">
-        <v>4368</v>
+        <v>4366</v>
       </c>
       <c r="K1858" s="1" t="s">
-        <v>4369</v>
+        <v>4367</v>
       </c>
     </row>
     <row r="1859" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1859" s="1" t="s">
-        <v>4370</v>
+        <v>4125</v>
       </c>
       <c r="C1859" s="1" t="s">
         <v>133</v>
@@ -76649,21 +76650,21 @@
         <v>33</v>
       </c>
       <c r="H1859">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1859">
         <v>2017</v>
       </c>
       <c r="J1859" s="1" t="s">
-        <v>4371</v>
+        <v>4368</v>
       </c>
       <c r="K1859" s="1" t="s">
-        <v>4372</v>
+        <v>4369</v>
       </c>
     </row>
     <row r="1860" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1860" s="1" t="s">
-        <v>4128</v>
+        <v>4370</v>
       </c>
       <c r="C1860" s="1" t="s">
         <v>133</v>
@@ -76681,21 +76682,21 @@
         <v>33</v>
       </c>
       <c r="H1860">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I1860">
         <v>2017</v>
       </c>
       <c r="J1860" s="1" t="s">
-        <v>4373</v>
+        <v>4371</v>
       </c>
       <c r="K1860" s="1" t="s">
-        <v>4374</v>
+        <v>4372</v>
       </c>
     </row>
     <row r="1861" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1861" s="1" t="s">
-        <v>4121</v>
+        <v>4128</v>
       </c>
       <c r="C1861" s="1" t="s">
         <v>133</v>
@@ -76713,21 +76714,21 @@
         <v>33</v>
       </c>
       <c r="H1861">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I1861">
         <v>2017</v>
       </c>
       <c r="J1861" s="1" t="s">
-        <v>4375</v>
+        <v>4373</v>
       </c>
       <c r="K1861" s="1" t="s">
-        <v>4376</v>
+        <v>4374</v>
       </c>
     </row>
     <row r="1862" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1862" s="1" t="s">
-        <v>4021</v>
+        <v>4121</v>
       </c>
       <c r="C1862" s="1" t="s">
         <v>133</v>
@@ -76742,24 +76743,24 @@
         <v>133</v>
       </c>
       <c r="G1862" s="1" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="H1862">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I1862">
         <v>2017</v>
       </c>
       <c r="J1862" s="1" t="s">
-        <v>4377</v>
+        <v>4375</v>
       </c>
       <c r="K1862" s="1" t="s">
-        <v>4378</v>
+        <v>4376</v>
       </c>
     </row>
     <row r="1863" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1863" s="1" t="s">
-        <v>4379</v>
+        <v>4021</v>
       </c>
       <c r="C1863" s="1" t="s">
         <v>133</v>
@@ -76777,21 +76778,21 @@
         <v>129</v>
       </c>
       <c r="H1863">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I1863">
         <v>2017</v>
       </c>
       <c r="J1863" s="1" t="s">
-        <v>4380</v>
+        <v>4377</v>
       </c>
       <c r="K1863" s="1" t="s">
-        <v>4381</v>
+        <v>4378</v>
       </c>
     </row>
     <row r="1864" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1864" s="1" t="s">
-        <v>4382</v>
+        <v>4379</v>
       </c>
       <c r="C1864" s="1" t="s">
         <v>133</v>
@@ -76823,7 +76824,7 @@
     </row>
     <row r="1865" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1865" s="1" t="s">
-        <v>4383</v>
+        <v>4382</v>
       </c>
       <c r="C1865" s="1" t="s">
         <v>133</v>
@@ -76841,21 +76842,21 @@
         <v>129</v>
       </c>
       <c r="H1865">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I1865">
         <v>2017</v>
       </c>
       <c r="J1865" s="1" t="s">
-        <v>4384</v>
+        <v>4380</v>
       </c>
       <c r="K1865" s="1" t="s">
-        <v>4385</v>
+        <v>4381</v>
       </c>
     </row>
     <row r="1866" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1866" s="1" t="s">
-        <v>4386</v>
+        <v>4383</v>
       </c>
       <c r="C1866" s="1" t="s">
         <v>133</v>
@@ -76873,21 +76874,21 @@
         <v>129</v>
       </c>
       <c r="H1866">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I1866">
         <v>2017</v>
       </c>
       <c r="J1866" s="1" t="s">
-        <v>4387</v>
+        <v>4384</v>
       </c>
       <c r="K1866" s="1" t="s">
-        <v>4388</v>
+        <v>4385</v>
       </c>
     </row>
     <row r="1867" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1867" s="1" t="s">
-        <v>4389</v>
+        <v>4386</v>
       </c>
       <c r="C1867" s="1" t="s">
         <v>133</v>
@@ -76905,21 +76906,21 @@
         <v>129</v>
       </c>
       <c r="H1867">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I1867">
         <v>2017</v>
       </c>
       <c r="J1867" s="1" t="s">
-        <v>4390</v>
+        <v>4387</v>
       </c>
       <c r="K1867" s="1" t="s">
-        <v>4391</v>
+        <v>4388</v>
       </c>
     </row>
     <row r="1868" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1868" s="1" t="s">
-        <v>4392</v>
+        <v>4389</v>
       </c>
       <c r="C1868" s="1" t="s">
         <v>133</v>
@@ -76951,7 +76952,7 @@
     </row>
     <row r="1869" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1869" s="1" t="s">
-        <v>4393</v>
+        <v>4392</v>
       </c>
       <c r="C1869" s="1" t="s">
         <v>133</v>
@@ -76966,24 +76967,24 @@
         <v>133</v>
       </c>
       <c r="G1869" s="1" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="H1869">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I1869">
         <v>2017</v>
       </c>
       <c r="J1869" s="1" t="s">
-        <v>4394</v>
+        <v>4390</v>
       </c>
       <c r="K1869" s="1" t="s">
-        <v>4395</v>
+        <v>4391</v>
       </c>
     </row>
     <row r="1870" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1870" s="1" t="s">
-        <v>4396</v>
+        <v>4393</v>
       </c>
       <c r="C1870" s="1" t="s">
         <v>133</v>
@@ -77001,21 +77002,21 @@
         <v>152</v>
       </c>
       <c r="H1870">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I1870">
         <v>2017</v>
       </c>
       <c r="J1870" s="1" t="s">
-        <v>4397</v>
+        <v>4394</v>
       </c>
       <c r="K1870" s="1" t="s">
-        <v>4398</v>
+        <v>4395</v>
       </c>
     </row>
     <row r="1871" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1871" s="1" t="s">
-        <v>4399</v>
+        <v>4396</v>
       </c>
       <c r="C1871" s="1" t="s">
         <v>133</v>
@@ -77033,21 +77034,21 @@
         <v>152</v>
       </c>
       <c r="H1871">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I1871">
         <v>2017</v>
       </c>
       <c r="J1871" s="1" t="s">
-        <v>4400</v>
+        <v>4397</v>
       </c>
       <c r="K1871" s="1" t="s">
-        <v>4401</v>
+        <v>4398</v>
       </c>
     </row>
     <row r="1872" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1872" s="1" t="s">
-        <v>4402</v>
+        <v>4399</v>
       </c>
       <c r="C1872" s="1" t="s">
         <v>133</v>
@@ -77062,24 +77063,24 @@
         <v>133</v>
       </c>
       <c r="G1872" s="1" t="s">
-        <v>3699</v>
+        <v>152</v>
       </c>
       <c r="H1872">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I1872">
         <v>2017</v>
       </c>
       <c r="J1872" s="1" t="s">
-        <v>4403</v>
+        <v>4400</v>
       </c>
       <c r="K1872" s="1" t="s">
-        <v>4404</v>
+        <v>4401</v>
       </c>
     </row>
     <row r="1873" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1873" s="1" t="s">
-        <v>4405</v>
+        <v>4402</v>
       </c>
       <c r="C1873" s="1" t="s">
         <v>133</v>
@@ -77094,24 +77095,24 @@
         <v>133</v>
       </c>
       <c r="G1873" s="1" t="s">
-        <v>602</v>
+        <v>3699</v>
       </c>
       <c r="H1873">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I1873">
         <v>2017</v>
       </c>
       <c r="J1873" s="1" t="s">
-        <v>4406</v>
+        <v>4403</v>
       </c>
       <c r="K1873" s="1" t="s">
-        <v>4407</v>
+        <v>4404</v>
       </c>
     </row>
     <row r="1874" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1874" s="1" t="s">
-        <v>4408</v>
+        <v>4405</v>
       </c>
       <c r="C1874" s="1" t="s">
         <v>133</v>
@@ -77129,21 +77130,21 @@
         <v>602</v>
       </c>
       <c r="H1874">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I1874">
         <v>2017</v>
       </c>
       <c r="J1874" s="1" t="s">
-        <v>4409</v>
+        <v>4406</v>
       </c>
       <c r="K1874" s="1" t="s">
-        <v>4410</v>
+        <v>4407</v>
       </c>
     </row>
     <row r="1875" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1875" s="1" t="s">
-        <v>4411</v>
+        <v>4408</v>
       </c>
       <c r="C1875" s="1" t="s">
         <v>133</v>
@@ -77161,21 +77162,21 @@
         <v>602</v>
       </c>
       <c r="H1875">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1875">
         <v>2017</v>
       </c>
       <c r="J1875" s="1" t="s">
-        <v>4412</v>
+        <v>4409</v>
       </c>
       <c r="K1875" s="1" t="s">
-        <v>4413</v>
+        <v>4410</v>
       </c>
     </row>
     <row r="1876" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1876" s="1" t="s">
-        <v>2077</v>
+        <v>4411</v>
       </c>
       <c r="C1876" s="1" t="s">
         <v>133</v>
@@ -77193,21 +77194,21 @@
         <v>602</v>
       </c>
       <c r="H1876">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I1876">
         <v>2017</v>
       </c>
       <c r="J1876" s="1" t="s">
-        <v>4414</v>
+        <v>4412</v>
       </c>
       <c r="K1876" s="1" t="s">
-        <v>4415</v>
+        <v>4413</v>
       </c>
     </row>
     <row r="1877" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1877" s="1" t="s">
-        <v>4416</v>
+        <v>2077</v>
       </c>
       <c r="C1877" s="1" t="s">
         <v>133</v>
@@ -77231,15 +77232,15 @@
         <v>2017</v>
       </c>
       <c r="J1877" s="1" t="s">
-        <v>4417</v>
+        <v>4414</v>
       </c>
       <c r="K1877" s="1" t="s">
-        <v>4418</v>
+        <v>4415</v>
       </c>
     </row>
     <row r="1878" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1878" s="1" t="s">
-        <v>4141</v>
+        <v>4416</v>
       </c>
       <c r="C1878" s="1" t="s">
         <v>133</v>
@@ -77257,21 +77258,21 @@
         <v>602</v>
       </c>
       <c r="H1878">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I1878">
         <v>2017</v>
       </c>
       <c r="J1878" s="1" t="s">
-        <v>4419</v>
+        <v>4417</v>
       </c>
       <c r="K1878" s="1" t="s">
-        <v>4420</v>
+        <v>4418</v>
       </c>
     </row>
     <row r="1879" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1879" s="1" t="s">
-        <v>3965</v>
+        <v>4141</v>
       </c>
       <c r="C1879" s="1" t="s">
         <v>133</v>
@@ -77289,21 +77290,21 @@
         <v>602</v>
       </c>
       <c r="H1879">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I1879">
         <v>2017</v>
       </c>
       <c r="J1879" s="1" t="s">
-        <v>4421</v>
+        <v>4419</v>
       </c>
       <c r="K1879" s="1" t="s">
-        <v>4422</v>
+        <v>4420</v>
       </c>
     </row>
     <row r="1880" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1880" s="1" t="s">
-        <v>4423</v>
+        <v>3965</v>
       </c>
       <c r="C1880" s="1" t="s">
         <v>133</v>
@@ -77318,24 +77319,24 @@
         <v>133</v>
       </c>
       <c r="G1880" s="1" t="s">
-        <v>158</v>
+        <v>602</v>
       </c>
       <c r="H1880">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I1880">
         <v>2017</v>
       </c>
       <c r="J1880" s="1" t="s">
-        <v>4424</v>
+        <v>4421</v>
       </c>
       <c r="K1880" s="1" t="s">
-        <v>4425</v>
+        <v>4422</v>
       </c>
     </row>
     <row r="1881" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1881" s="1" t="s">
-        <v>4426</v>
+        <v>4423</v>
       </c>
       <c r="C1881" s="1" t="s">
         <v>133</v>
@@ -77353,21 +77354,21 @@
         <v>158</v>
       </c>
       <c r="H1881">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I1881">
         <v>2017</v>
       </c>
       <c r="J1881" s="1" t="s">
-        <v>4427</v>
+        <v>4424</v>
       </c>
       <c r="K1881" s="1" t="s">
-        <v>4428</v>
+        <v>4425</v>
       </c>
     </row>
     <row r="1882" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1882" s="1" t="s">
-        <v>4429</v>
+        <v>4426</v>
       </c>
       <c r="C1882" s="1" t="s">
         <v>133</v>
@@ -77382,24 +77383,24 @@
         <v>133</v>
       </c>
       <c r="G1882" s="1" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="H1882">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="I1882">
         <v>2017</v>
       </c>
       <c r="J1882" s="1" t="s">
-        <v>4430</v>
+        <v>4427</v>
       </c>
       <c r="K1882" s="1" t="s">
-        <v>4431</v>
+        <v>4428</v>
       </c>
     </row>
     <row r="1883" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1883" s="1" t="s">
-        <v>4432</v>
+        <v>4429</v>
       </c>
       <c r="C1883" s="1" t="s">
         <v>133</v>
@@ -77417,21 +77418,21 @@
         <v>170</v>
       </c>
       <c r="H1883">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I1883">
         <v>2017</v>
       </c>
       <c r="J1883" s="1" t="s">
-        <v>4433</v>
+        <v>4430</v>
       </c>
       <c r="K1883" s="1" t="s">
-        <v>4434</v>
+        <v>4431</v>
       </c>
     </row>
     <row r="1884" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1884" s="1" t="s">
-        <v>4435</v>
+        <v>4432</v>
       </c>
       <c r="C1884" s="1" t="s">
         <v>133</v>
@@ -77463,7 +77464,7 @@
     </row>
     <row r="1885" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1885" s="1" t="s">
-        <v>4436</v>
+        <v>4435</v>
       </c>
       <c r="C1885" s="1" t="s">
         <v>133</v>
@@ -77481,21 +77482,21 @@
         <v>170</v>
       </c>
       <c r="H1885">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1885">
         <v>2017</v>
       </c>
       <c r="J1885" s="1" t="s">
-        <v>4437</v>
+        <v>4433</v>
       </c>
       <c r="K1885" s="1" t="s">
-        <v>4438</v>
+        <v>4434</v>
       </c>
     </row>
     <row r="1886" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1886" s="1" t="s">
-        <v>4439</v>
+        <v>4436</v>
       </c>
       <c r="C1886" s="1" t="s">
         <v>133</v>
@@ -77513,21 +77514,21 @@
         <v>170</v>
       </c>
       <c r="H1886">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I1886">
         <v>2017</v>
       </c>
       <c r="J1886" s="1" t="s">
-        <v>4440</v>
+        <v>4437</v>
       </c>
       <c r="K1886" s="1" t="s">
-        <v>4441</v>
+        <v>4438</v>
       </c>
     </row>
     <row r="1887" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1887" s="1" t="s">
-        <v>4442</v>
+        <v>4439</v>
       </c>
       <c r="C1887" s="1" t="s">
         <v>133</v>
@@ -77545,21 +77546,21 @@
         <v>170</v>
       </c>
       <c r="H1887">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="I1887">
         <v>2017</v>
       </c>
       <c r="J1887" s="1" t="s">
-        <v>4443</v>
+        <v>4440</v>
       </c>
       <c r="K1887" s="1" t="s">
-        <v>4444</v>
+        <v>4441</v>
       </c>
     </row>
     <row r="1888" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1888" s="1" t="s">
-        <v>4445</v>
+        <v>4442</v>
       </c>
       <c r="C1888" s="1" t="s">
         <v>133</v>
@@ -77591,7 +77592,7 @@
     </row>
     <row r="1889" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1889" s="1" t="s">
-        <v>4446</v>
+        <v>4445</v>
       </c>
       <c r="C1889" s="1" t="s">
         <v>133</v>
@@ -77609,21 +77610,21 @@
         <v>170</v>
       </c>
       <c r="H1889">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="I1889">
         <v>2017</v>
       </c>
       <c r="J1889" s="1" t="s">
-        <v>4447</v>
+        <v>4443</v>
       </c>
       <c r="K1889" s="1" t="s">
-        <v>4448</v>
+        <v>4444</v>
       </c>
     </row>
     <row r="1890" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1890" s="1" t="s">
-        <v>4449</v>
+        <v>4446</v>
       </c>
       <c r="C1890" s="1" t="s">
         <v>133</v>
@@ -77655,7 +77656,7 @@
     </row>
     <row r="1891" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1891" s="1" t="s">
-        <v>4450</v>
+        <v>4449</v>
       </c>
       <c r="C1891" s="1" t="s">
         <v>133</v>
@@ -77687,7 +77688,7 @@
     </row>
     <row r="1892" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1892" s="1" t="s">
-        <v>4451</v>
+        <v>4450</v>
       </c>
       <c r="C1892" s="1" t="s">
         <v>133</v>
@@ -77702,18 +77703,50 @@
         <v>133</v>
       </c>
       <c r="G1892" s="1" t="s">
-        <v>3469</v>
+        <v>170</v>
       </c>
       <c r="H1892">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I1892">
         <v>2017</v>
       </c>
       <c r="J1892" s="1" t="s">
+        <v>4447</v>
+      </c>
+      <c r="K1892" s="1" t="s">
+        <v>4448</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1893" s="1" t="s">
+        <v>4451</v>
+      </c>
+      <c r="C1893" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1893" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1893" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1893" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G1893" s="1" t="s">
+        <v>3469</v>
+      </c>
+      <c r="H1893">
+        <v>7</v>
+      </c>
+      <c r="I1893">
+        <v>2017</v>
+      </c>
+      <c r="J1893" s="1" t="s">
         <v>4452</v>
       </c>
-      <c r="K1892" s="1" t="s">
+      <c r="K1893" s="1" t="s">
         <v>4453</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -14794,7 +14794,7 @@
     <t xml:space="preserve">Intersubjektivnost i telesno iskustvo u praksama čitanja tarota</t>
   </si>
   <si>
-    <t xml:space="preserve">pdf/2019/PS78-Zb2019_III-ANT-MB</t>
+    <t xml:space="preserve">pdf/2019/PS78-Zb2019_III-ANT-MB.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Lazarević Mateja </t>
@@ -14806,7 +14806,7 @@
     <t xml:space="preserve">Narativi i prakse solidarnosti u kontekstu borbe protiv deložacija</t>
   </si>
   <si>
-    <t xml:space="preserve">pdf/2019/PS78-Zb2019_III-ANT-ML</t>
+    <t xml:space="preserve">pdf/2019/PS78-Zb2019_III-ANT-ML.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Kačar Atina </t>
@@ -14818,7 +14818,7 @@
     <t xml:space="preserve">Šta znači biti dobar roditelj? Narativi o roditeljstvu u peroiodu neoliberalizma</t>
   </si>
   <si>
-    <t xml:space="preserve">pdf/2019/PS78-Zb2019_III-ANT-AKLT</t>
+    <t xml:space="preserve">pdf/2019/PS78-Zb2019_III-ANT-AKLT.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Trifunović Lena</t>
@@ -14830,7 +14830,7 @@
     <t xml:space="preserve">Stilska i hemijska analiza prestonih ikona ikonostasa crkve Uspenja Presvete Bogorodice u Petnici</t>
   </si>
   <si>
-    <t xml:space="preserve">pdf/2019/PS78-Zb2019_III-AHL-MMNP</t>
+    <t xml:space="preserve">pdf/2019/PS78-Zb2019_III-AHL-MMNP.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Nježić Teodora</t>
@@ -14842,13 +14842,13 @@
     <t xml:space="preserve">Analiza ugljenisanih ostataka drveta iz objekata 1 i 2 sa lokaliteta Anine u Ćelijama</t>
   </si>
   <si>
-    <t xml:space="preserve">pdf/2019/PS78-Zb2019_III-AHL-TN</t>
+    <t xml:space="preserve">pdf/2019/PS78-Zb2019_III-AHL-TN.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Predstave evharistijskih posuda na liturgijskim scenama u doba Renesanse Paleologa u hramovima srpskih ktitora</t>
   </si>
   <si>
-    <t xml:space="preserve">pdf/2019/PS78-Zb2019_III-AHL-MS</t>
+    <t xml:space="preserve">pdf/2019/PS78-Zb2019_III-AHL-MS.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Trajković Katarina</t>
@@ -14860,7 +14860,7 @@
     <t xml:space="preserve">Analiza skeletnih ostataka iz grobova 112, 114 i 123 sa lokaliteta Slavkovica</t>
   </si>
   <si>
-    <t xml:space="preserve">pdf/2019/PS78-Zb2019_III-AHL-KT</t>
+    <t xml:space="preserve">pdf/2019/PS78-Zb2019_III-AHL-KT.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Đorđević Mina</t>
@@ -14872,7 +14872,7 @@
     <t xml:space="preserve">Rezervisano: mladi o ambijentima koncerata klasične muzike</t>
   </si>
   <si>
-    <t xml:space="preserve">pdf/2019/PS78-Zb2019_III-DHN-MDj</t>
+    <t xml:space="preserve">pdf/2019/PS78-Zb2019_III-DHN-MDj.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Radić Kiša</t>
@@ -14884,7 +14884,7 @@
     <t xml:space="preserve">Motivacija za izradu kognitivnih zadataka - uloga samopouzdanja i muzike</t>
   </si>
   <si>
-    <t xml:space="preserve">pdf/2019/PS78-Zb2019_III-DHN-KR</t>
+    <t xml:space="preserve">pdf/2019/PS78-Zb2019_III-DHN-KR.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Nojić Lena</t>
@@ -14893,7 +14893,7 @@
     <t xml:space="preserve">Autobiografska sećanja na detinjstvo: Šta čini sećanja upečatljivim</t>
   </si>
   <si>
-    <t xml:space="preserve">pdf/2019/PS78-Zb2019_III-DHN-LN</t>
+    <t xml:space="preserve">pdf/2019/PS78-Zb2019_III-DHN-LN.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Babić Milica</t>
@@ -14905,13 +14905,13 @@
     <t xml:space="preserve">Očekivanje dece predškolskog uzrasta o početku prvog razreda</t>
   </si>
   <si>
-    <t xml:space="preserve">pdf/2019/PS78-Zb2019_III-DHN-MB</t>
+    <t xml:space="preserve">pdf/2019/PS78-Zb2019_III-DHN-MB.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Sreski odbor Saveza ratnih vojnih invalida u Valjevu (1950 - 1962)</t>
   </si>
   <si>
-    <t xml:space="preserve">pdf/2019/PS78-Zb2019_III-IST-PI</t>
+    <t xml:space="preserve">pdf/2019/PS78-Zb2019_III-IST-PI.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Milekovič Ivan</t>
@@ -14920,7 +14920,7 @@
     <t xml:space="preserve">Jugoslovenstvo u slobodnozidarskim ložama Beograda i Zagreba</t>
   </si>
   <si>
-    <t xml:space="preserve">pdf/2019/PS78-Zb2019_III-IST-IM</t>
+    <t xml:space="preserve">pdf/2019/PS78-Zb2019_III-IST-IM.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Žunić Konstantin</t>
@@ -14929,7 +14929,7 @@
     <t xml:space="preserve">Odnos vlasti i Udruženja Južnosrbijanaca 1929-1943</t>
   </si>
   <si>
-    <t xml:space="preserve">pdf/2019/PS78-Zb2019_III-IST-KZh</t>
+    <t xml:space="preserve">pdf/2019/PS78-Zb2019_III-IST-KZh.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ekonomska škola "Đuka Dinić"</t>
@@ -14938,7 +14938,7 @@
     <t xml:space="preserve">Integrisanje Banjalučkog okruga u politički i ekonomski sistem Kraljevine SHS</t>
   </si>
   <si>
-    <t xml:space="preserve">pdf/2019/PS78-Zb2019_III-IST-MM</t>
+    <t xml:space="preserve">pdf/2019/PS78-Zb2019_III-IST-MM.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Samočeta Jelena</t>
@@ -14947,7 +14947,7 @@
     <t xml:space="preserve">Tipovi metonimije u nazivima za psihoaktivne supstance u slengu</t>
   </si>
   <si>
-    <t xml:space="preserve">pdf/2019/PS78-Zb2019_III-LIN-JS</t>
+    <t xml:space="preserve">pdf/2019/PS78-Zb2019_III-LIN-JS.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Savić Helena</t>
@@ -14956,7 +14956,7 @@
     <t xml:space="preserve">Stavovi mađarsko-srpskih bilingvala prema srpskom jeziku</t>
   </si>
   <si>
-    <t xml:space="preserve">pdf/2019/PS78-Zb2019_III-LIN-HS</t>
+    <t xml:space="preserve">pdf/2019/PS78-Zb2019_III-LIN-HS.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Despotović Nela</t>
@@ -14968,7 +14968,7 @@
     <t xml:space="preserve">Rod u jezicu: Antropolingvistički pogled na stanje u italijanskom i danskom jeziku</t>
   </si>
   <si>
-    <t xml:space="preserve">pdf/2019/PS78-Zb2019_III-LIN-ND</t>
+    <t xml:space="preserve">pdf/2019/PS78-Zb2019_III-LIN-ND.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Savić Katarina</t>
@@ -14977,7 +14977,7 @@
     <t xml:space="preserve">Komparativna analiza frazeologizama sa nazivima domaćih životnja u srpskom i italijanskom jeziku</t>
   </si>
   <si>
-    <t xml:space="preserve">pdf/2019/PS78-Zb2019_III-LIN-KS</t>
+    <t xml:space="preserve">pdf/2019/PS78-Zb2019_III-LIN-KS.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Sakule</t>
@@ -14986,7 +14986,7 @@
     <t xml:space="preserve">Efekat homogenog grupisanja i lingvističke darovitosti na lingvistički self-koncept i jezičku anksioznost srednjoškolaca</t>
   </si>
   <si>
-    <t xml:space="preserve">pdf/2019/PS78-Zb2019_III-PSI-DO</t>
+    <t xml:space="preserve">pdf/2019/PS78-Zb2019_III-PSI-DO.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Zubnar Dušan</t>
@@ -14995,7 +14995,7 @@
     <t xml:space="preserve">Predviđanje konzervativnosti stava načinima prevazilaženja stresa pri odlučivanju</t>
   </si>
   <si>
-    <t xml:space="preserve">pdf/2019/PS78-Zb2019_III-PSI-DZVP</t>
+    <t xml:space="preserve">pdf/2019/PS78-Zb2019_III-PSI-DZVP.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Plavšić Vladana</t>
@@ -15007,7 +15007,7 @@
     <t xml:space="preserve">Uticaj auditivnog primovanja u vizelnoj pretrazi u normalnim i degradiranim uslovima</t>
   </si>
   <si>
-    <t xml:space="preserve">pdf/2019/PS78-Zb2019_III-PSI-VJ</t>
+    <t xml:space="preserve">pdf/2019/PS78-Zb2019_III-PSI-VJ.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Crnogorac Mina</t>
@@ -15016,7 +15016,7 @@
     <t xml:space="preserve">Odnos adolescenata Srbije prema generički modifikovanoj hrani: uverenja, objektivno i samoprocenjeno znanje</t>
   </si>
   <si>
-    <t xml:space="preserve">pdf/2019/PS78-Zb2019_III-PSI-MC</t>
+    <t xml:space="preserve">pdf/2019/PS78-Zb2019_III-PSI-MC.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Matevska Mina</t>
@@ -15025,7 +15025,7 @@
     <t xml:space="preserve">Srednja turistička škola</t>
   </si>
   <si>
-    <t xml:space="preserve">pdf/2019/PS78-Zb2019_III-PSI-MM</t>
+    <t xml:space="preserve">pdf/2019/PS78-Zb2019_III-PSI-MM.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Seminar dizajna 2019</t>
@@ -15165,11 +15165,11 @@
   </sheetPr>
   <dimension ref="A1:L2126"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2012" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2033" activeCellId="0" sqref="E2033"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K2083" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N2116" activeCellId="0" sqref="N2116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.14"/>
@@ -77715,7 +77715,7 @@
         <v>13</v>
       </c>
       <c r="G2089" s="3" t="s">
-        <v>4885</v>
+        <v>114</v>
       </c>
       <c r="H2089" s="1"/>
       <c r="I2089" s="3" t="n">
@@ -77748,7 +77748,7 @@
         <v>13</v>
       </c>
       <c r="G2090" s="3" t="s">
-        <v>4885</v>
+        <v>114</v>
       </c>
       <c r="H2090" s="1"/>
       <c r="I2090" s="3" t="n">
@@ -77781,7 +77781,7 @@
         <v>2350</v>
       </c>
       <c r="G2091" s="3" t="s">
-        <v>4885</v>
+        <v>114</v>
       </c>
       <c r="H2091" s="1"/>
       <c r="I2091" s="3" t="n">
@@ -77814,7 +77814,7 @@
         <v>21</v>
       </c>
       <c r="G2092" s="3" t="s">
-        <v>4885</v>
+        <v>114</v>
       </c>
       <c r="H2092" s="1"/>
       <c r="I2092" s="3" t="n">
@@ -77847,7 +77847,7 @@
         <v>13</v>
       </c>
       <c r="G2093" s="3" t="s">
-        <v>4885</v>
+        <v>114</v>
       </c>
       <c r="H2093" s="1"/>
       <c r="I2093" s="3" t="n">
@@ -77880,7 +77880,7 @@
         <v>853</v>
       </c>
       <c r="G2094" s="3" t="s">
-        <v>4885</v>
+        <v>114</v>
       </c>
       <c r="H2094" s="1"/>
       <c r="I2094" s="3" t="n">
